--- a/BackTest/2019-10-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-21 BackTest ZRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>13</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L12" t="n">
         <v>377.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>14</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
       <c r="L13" t="n">
         <v>377.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>14</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>378.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>15</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L15" t="n">
         <v>378.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>15</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L16" t="n">
         <v>378.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>16</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>378.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>18</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>50</v>
+      </c>
       <c r="L18" t="n">
         <v>379</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>18</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L19" t="n">
         <v>379.4</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>19</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L20" t="n">
         <v>379.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>380.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>19</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>60</v>
+      </c>
       <c r="L22" t="n">
         <v>380.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>44.44444444444444</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L23" t="n">
         <v>380.9</v>
@@ -1466,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="K24" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>381.1</v>
@@ -1515,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L25" t="n">
         <v>381.3</v>
@@ -1564,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="K26" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L26" t="n">
         <v>381.6</v>
@@ -1613,7 +1635,7 @@
         <v>25</v>
       </c>
       <c r="K27" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L27" t="n">
         <v>381.9</v>
@@ -1711,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="K29" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>382.3</v>
@@ -1760,7 +1782,7 @@
         <v>29</v>
       </c>
       <c r="K30" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>382.3</v>
@@ -1809,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>22.22222222222222</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L31" t="n">
         <v>382.4</v>
@@ -1860,7 +1882,7 @@
         <v>32</v>
       </c>
       <c r="K32" t="n">
-        <v>15.78947368421053</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L32" t="n">
         <v>382.3</v>
@@ -1911,7 +1933,7 @@
         <v>34</v>
       </c>
       <c r="K33" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L33" t="n">
         <v>382.3</v>
@@ -1962,7 +1984,7 @@
         <v>36</v>
       </c>
       <c r="K34" t="n">
-        <v>9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L34" t="n">
         <v>382.3</v>
@@ -2013,7 +2035,7 @@
         <v>36</v>
       </c>
       <c r="K35" t="n">
-        <v>4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L35" t="n">
         <v>382.2</v>
@@ -2064,7 +2086,7 @@
         <v>37</v>
       </c>
       <c r="K36" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>382.1</v>
@@ -2115,7 +2137,7 @@
         <v>39</v>
       </c>
       <c r="K37" t="n">
-        <v>4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>381.9</v>
@@ -2166,7 +2188,7 @@
         <v>39</v>
       </c>
       <c r="K38" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L38" t="n">
         <v>381.5</v>
@@ -2217,7 +2239,7 @@
         <v>39</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L39" t="n">
         <v>381.3</v>
@@ -2268,7 +2290,7 @@
         <v>40</v>
       </c>
       <c r="K40" t="n">
-        <v>-14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L40" t="n">
         <v>381</v>
@@ -2319,7 +2341,7 @@
         <v>40</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L41" t="n">
         <v>380.6</v>
@@ -2370,7 +2392,7 @@
         <v>40</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.28571428571428</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L42" t="n">
         <v>380.4</v>
@@ -2421,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="K43" t="n">
-        <v>-23.80952380952381</v>
+        <v>-60</v>
       </c>
       <c r="L43" t="n">
         <v>379.9</v>
@@ -2472,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="K44" t="n">
-        <v>-20</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L44" t="n">
         <v>379.5</v>
@@ -2523,7 +2545,7 @@
         <v>42</v>
       </c>
       <c r="K45" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L45" t="n">
         <v>379.1</v>
@@ -2574,7 +2596,7 @@
         <v>43</v>
       </c>
       <c r="K46" t="n">
-        <v>-36.84210526315789</v>
+        <v>-100</v>
       </c>
       <c r="L46" t="n">
         <v>378.5</v>
@@ -2625,7 +2647,7 @@
         <v>43</v>
       </c>
       <c r="K47" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L47" t="n">
         <v>378.1</v>
@@ -2727,7 +2749,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L49" t="n">
         <v>377.9</v>
@@ -2778,7 +2800,7 @@
         <v>47</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L50" t="n">
         <v>378</v>
@@ -2829,7 +2851,7 @@
         <v>48</v>
       </c>
       <c r="K51" t="n">
-        <v>-11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L51" t="n">
         <v>378.2</v>
@@ -2880,7 +2902,7 @@
         <v>49</v>
       </c>
       <c r="K52" t="n">
-        <v>5.88235294117647</v>
+        <v>50</v>
       </c>
       <c r="L52" t="n">
         <v>378.5</v>
@@ -2931,7 +2953,7 @@
         <v>50</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L53" t="n">
         <v>379</v>
@@ -2982,7 +3004,7 @@
         <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>14.28571428571428</v>
+        <v>75</v>
       </c>
       <c r="L54" t="n">
         <v>379.6</v>
@@ -3033,7 +3055,7 @@
         <v>50</v>
       </c>
       <c r="K55" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>380.2</v>
@@ -3084,7 +3106,7 @@
         <v>51</v>
       </c>
       <c r="K56" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>381</v>
@@ -3135,7 +3157,7 @@
         <v>51</v>
       </c>
       <c r="K57" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>381.8</v>
@@ -3186,7 +3208,7 @@
         <v>52</v>
       </c>
       <c r="K58" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>382.5</v>
@@ -3237,7 +3259,7 @@
         <v>53</v>
       </c>
       <c r="K59" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
         <v>383.1</v>
@@ -3288,7 +3310,7 @@
         <v>54</v>
       </c>
       <c r="K60" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L60" t="n">
         <v>383.6</v>
@@ -3339,7 +3361,7 @@
         <v>54</v>
       </c>
       <c r="K61" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L61" t="n">
         <v>384</v>
@@ -3390,7 +3412,7 @@
         <v>55</v>
       </c>
       <c r="K62" t="n">
-        <v>46.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L62" t="n">
         <v>384.4</v>
@@ -3441,7 +3463,7 @@
         <v>56</v>
       </c>
       <c r="K63" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>384.6</v>
@@ -3492,7 +3514,7 @@
         <v>56</v>
       </c>
       <c r="K64" t="n">
-        <v>57.14285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>384.8</v>
@@ -3543,7 +3565,7 @@
         <v>57</v>
       </c>
       <c r="K65" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>385.1</v>
@@ -3594,7 +3616,7 @@
         <v>57</v>
       </c>
       <c r="K66" t="n">
-        <v>71.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>385.3</v>
@@ -3645,7 +3667,7 @@
         <v>60</v>
       </c>
       <c r="K67" t="n">
-        <v>41.17647058823529</v>
+        <v>-25</v>
       </c>
       <c r="L67" t="n">
         <v>385.2</v>
@@ -3696,7 +3718,7 @@
         <v>60</v>
       </c>
       <c r="K68" t="n">
-        <v>33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L68" t="n">
         <v>385</v>
@@ -3747,7 +3769,7 @@
         <v>65</v>
       </c>
       <c r="K69" t="n">
-        <v>44.44444444444444</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L69" t="n">
         <v>385.2</v>
@@ -3798,7 +3820,7 @@
         <v>66</v>
       </c>
       <c r="K70" t="n">
-        <v>47.36842105263158</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>385.6</v>
@@ -3849,7 +3871,7 @@
         <v>67</v>
       </c>
       <c r="K71" t="n">
-        <v>36.84210526315789</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L71" t="n">
         <v>385.9</v>
@@ -3900,7 +3922,7 @@
         <v>67</v>
       </c>
       <c r="K72" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L72" t="n">
         <v>386.1</v>
@@ -3951,7 +3973,7 @@
         <v>70</v>
       </c>
       <c r="K73" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>386.1</v>
@@ -4002,7 +4024,7 @@
         <v>73</v>
       </c>
       <c r="K74" t="n">
-        <v>21.73913043478261</v>
+        <v>12.5</v>
       </c>
       <c r="L74" t="n">
         <v>386.4</v>
@@ -4053,7 +4075,7 @@
         <v>78</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>386.1</v>
@@ -4104,7 +4126,7 @@
         <v>79</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L76" t="n">
         <v>385.9</v>
@@ -4155,7 +4177,7 @@
         <v>80</v>
       </c>
       <c r="K77" t="n">
-        <v>3.448275862068965</v>
+        <v>10</v>
       </c>
       <c r="L77" t="n">
         <v>386.1</v>
@@ -4206,7 +4228,7 @@
         <v>82</v>
       </c>
       <c r="K78" t="n">
-        <v>6.666666666666667</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L78" t="n">
         <v>386.5</v>
@@ -4257,7 +4279,7 @@
         <v>82</v>
       </c>
       <c r="K79" t="n">
-        <v>3.448275862068965</v>
+        <v>-12.5</v>
       </c>
       <c r="L79" t="n">
         <v>386.4</v>
@@ -4308,7 +4330,7 @@
         <v>82</v>
       </c>
       <c r="K80" t="n">
-        <v>7.142857142857142</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L80" t="n">
         <v>386.2</v>
@@ -4359,7 +4381,7 @@
         <v>83</v>
       </c>
       <c r="K81" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>386.2</v>
@@ -4410,7 +4432,7 @@
         <v>84</v>
       </c>
       <c r="K82" t="n">
-        <v>3.448275862068965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L82" t="n">
         <v>386.1</v>
@@ -4461,7 +4483,7 @@
         <v>85</v>
       </c>
       <c r="K83" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>386.4</v>
@@ -4512,7 +4534,7 @@
         <v>87</v>
       </c>
       <c r="K84" t="n">
-        <v>16.12903225806452</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L84" t="n">
         <v>386.6</v>
@@ -4563,7 +4585,7 @@
         <v>88</v>
       </c>
       <c r="K85" t="n">
-        <v>16.12903225806452</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L85" t="n">
         <v>387.4</v>
@@ -4614,7 +4636,7 @@
         <v>90</v>
       </c>
       <c r="K86" t="n">
-        <v>9.090909090909092</v>
+        <v>40</v>
       </c>
       <c r="L86" t="n">
         <v>387.9</v>
@@ -4665,7 +4687,7 @@
         <v>90</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L87" t="n">
         <v>388.3</v>
@@ -4716,7 +4738,7 @@
         <v>92</v>
       </c>
       <c r="K88" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L88" t="n">
         <v>388.7</v>
@@ -4767,7 +4789,7 @@
         <v>92</v>
       </c>
       <c r="K89" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L89" t="n">
         <v>389.1</v>
@@ -4818,7 +4840,7 @@
         <v>93</v>
       </c>
       <c r="K90" t="n">
-        <v>3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>389.4</v>
@@ -4869,7 +4891,7 @@
         <v>97</v>
       </c>
       <c r="K91" t="n">
-        <v>-6.666666666666667</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L91" t="n">
         <v>389.2</v>
@@ -4920,7 +4942,7 @@
         <v>97</v>
       </c>
       <c r="K92" t="n">
-        <v>-6.666666666666667</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L92" t="n">
         <v>389.1</v>
@@ -4971,7 +4993,7 @@
         <v>97</v>
       </c>
       <c r="K93" t="n">
-        <v>3.703703703703703</v>
+        <v>-40</v>
       </c>
       <c r="L93" t="n">
         <v>388.9</v>
@@ -5022,7 +5044,7 @@
         <v>97</v>
       </c>
       <c r="K94" t="n">
-        <v>-8.333333333333332</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L94" t="n">
         <v>388.5</v>
@@ -5073,7 +5095,7 @@
         <v>97</v>
       </c>
       <c r="K95" t="n">
-        <v>15.78947368421053</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L95" t="n">
         <v>388</v>
@@ -5124,7 +5146,7 @@
         <v>98</v>
       </c>
       <c r="K96" t="n">
-        <v>15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L96" t="n">
         <v>387.8</v>
@@ -5175,7 +5197,7 @@
         <v>100</v>
       </c>
       <c r="K97" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="L97" t="n">
         <v>387.8</v>
@@ -5226,7 +5248,7 @@
         <v>100</v>
       </c>
       <c r="K98" t="n">
-        <v>11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L98" t="n">
         <v>387.6</v>
@@ -5277,7 +5299,7 @@
         <v>101</v>
       </c>
       <c r="K99" t="n">
-        <v>5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L99" t="n">
         <v>387.3</v>
@@ -5328,7 +5350,7 @@
         <v>103</v>
       </c>
       <c r="K100" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>386.9</v>
@@ -5379,7 +5401,7 @@
         <v>103</v>
       </c>
       <c r="K101" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>386.9</v>
@@ -5430,7 +5452,7 @@
         <v>104</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L102" t="n">
         <v>387</v>
@@ -5481,7 +5503,7 @@
         <v>105</v>
       </c>
       <c r="K103" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>387</v>
@@ -5532,7 +5554,7 @@
         <v>105</v>
       </c>
       <c r="K104" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>387</v>
@@ -5583,7 +5605,7 @@
         <v>107</v>
       </c>
       <c r="K105" t="n">
-        <v>-36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>386.8</v>
@@ -5634,7 +5656,7 @@
         <v>109</v>
       </c>
       <c r="K106" t="n">
-        <v>-36.84210526315789</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L106" t="n">
         <v>386.3</v>
@@ -5685,7 +5707,7 @@
         <v>110</v>
       </c>
       <c r="K107" t="n">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="L107" t="n">
         <v>385.7</v>
@@ -5736,7 +5758,7 @@
         <v>113</v>
       </c>
       <c r="K108" t="n">
-        <v>-23.80952380952381</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L108" t="n">
         <v>385.4</v>
@@ -5787,7 +5809,7 @@
         <v>114</v>
       </c>
       <c r="K109" t="n">
-        <v>-27.27272727272727</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L109" t="n">
         <v>385.1</v>
@@ -5838,7 +5860,7 @@
         <v>116</v>
       </c>
       <c r="K110" t="n">
-        <v>-30.43478260869566</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L110" t="n">
         <v>384.8</v>
@@ -5889,7 +5911,7 @@
         <v>116</v>
       </c>
       <c r="K111" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>384.5</v>
@@ -5940,7 +5962,7 @@
         <v>116</v>
       </c>
       <c r="K112" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L112" t="n">
         <v>384.1</v>
@@ -5991,7 +6013,7 @@
         <v>118</v>
       </c>
       <c r="K113" t="n">
-        <v>-4.761904761904762</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L113" t="n">
         <v>384</v>
@@ -6042,7 +6064,7 @@
         <v>118</v>
       </c>
       <c r="K114" t="n">
-        <v>-4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L114" t="n">
         <v>383.9</v>
@@ -6093,7 +6115,7 @@
         <v>121</v>
       </c>
       <c r="K115" t="n">
-        <v>8.333333333333332</v>
+        <v>50</v>
       </c>
       <c r="L115" t="n">
         <v>384.3</v>
@@ -6144,7 +6166,7 @@
         <v>124</v>
       </c>
       <c r="K116" t="n">
-        <v>15.38461538461539</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L116" t="n">
         <v>385.2</v>
@@ -6195,7 +6217,7 @@
         <v>124</v>
       </c>
       <c r="K117" t="n">
-        <v>8.333333333333332</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L117" t="n">
         <v>386</v>
@@ -6246,7 +6268,7 @@
         <v>124</v>
       </c>
       <c r="K118" t="n">
-        <v>8.333333333333332</v>
+        <v>60</v>
       </c>
       <c r="L118" t="n">
         <v>386.5</v>
@@ -6297,7 +6319,7 @@
         <v>125</v>
       </c>
       <c r="K119" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>387.2</v>
@@ -6348,7 +6370,7 @@
         <v>125</v>
       </c>
       <c r="K120" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>388.1</v>
@@ -6399,7 +6421,7 @@
         <v>127</v>
       </c>
       <c r="K121" t="n">
-        <v>16.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L121" t="n">
         <v>388.8</v>
@@ -6450,7 +6472,7 @@
         <v>128</v>
       </c>
       <c r="K122" t="n">
-        <v>8.333333333333332</v>
+        <v>40</v>
       </c>
       <c r="L122" t="n">
         <v>389.4</v>
@@ -6501,7 +6523,7 @@
         <v>128</v>
       </c>
       <c r="K123" t="n">
-        <v>13.04347826086956</v>
+        <v>40</v>
       </c>
       <c r="L123" t="n">
         <v>389.8</v>
@@ -6552,7 +6574,7 @@
         <v>131</v>
       </c>
       <c r="K124" t="n">
-        <v>23.07692307692308</v>
+        <v>40</v>
       </c>
       <c r="L124" t="n">
         <v>390.5</v>
@@ -6603,7 +6625,7 @@
         <v>131</v>
       </c>
       <c r="K125" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>390.9</v>
@@ -6654,7 +6676,7 @@
         <v>132</v>
       </c>
       <c r="K126" t="n">
-        <v>39.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>390.9</v>
@@ -6705,7 +6727,7 @@
         <v>132</v>
       </c>
       <c r="K127" t="n">
-        <v>36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>390.9</v>
@@ -6756,7 +6778,7 @@
         <v>133</v>
       </c>
       <c r="K128" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>391</v>
@@ -6807,7 +6829,7 @@
         <v>133</v>
       </c>
       <c r="K129" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>391</v>
@@ -6858,7 +6880,7 @@
         <v>135</v>
       </c>
       <c r="K130" t="n">
-        <v>57.89473684210527</v>
+        <v>50</v>
       </c>
       <c r="L130" t="n">
         <v>391.2</v>
@@ -6909,7 +6931,7 @@
         <v>135</v>
       </c>
       <c r="K131" t="n">
-        <v>57.89473684210527</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L131" t="n">
         <v>391.6</v>
@@ -6960,7 +6982,7 @@
         <v>137</v>
       </c>
       <c r="K132" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>391.9</v>
@@ -7011,7 +7033,7 @@
         <v>138</v>
       </c>
       <c r="K133" t="n">
-        <v>40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>392.3</v>
@@ -7062,7 +7084,7 @@
         <v>138</v>
       </c>
       <c r="K134" t="n">
-        <v>40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L134" t="n">
         <v>392.4</v>
@@ -7113,7 +7135,7 @@
         <v>139</v>
       </c>
       <c r="K135" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L135" t="n">
         <v>392.6</v>
@@ -7164,7 +7186,7 @@
         <v>141</v>
       </c>
       <c r="K136" t="n">
-        <v>29.41176470588236</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L136" t="n">
         <v>393.1</v>
@@ -7215,7 +7237,7 @@
         <v>143</v>
       </c>
       <c r="K137" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L137" t="n">
         <v>393.4</v>
@@ -7266,7 +7288,7 @@
         <v>144</v>
       </c>
       <c r="K138" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L138" t="n">
         <v>393.7</v>
@@ -7317,7 +7339,7 @@
         <v>144</v>
       </c>
       <c r="K139" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L139" t="n">
         <v>394</v>
@@ -7368,7 +7390,7 @@
         <v>145</v>
       </c>
       <c r="K140" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>394</v>
@@ -7419,7 +7441,7 @@
         <v>145</v>
       </c>
       <c r="K141" t="n">
-        <v>22.22222222222222</v>
+        <v>25</v>
       </c>
       <c r="L141" t="n">
         <v>394</v>
@@ -7470,7 +7492,7 @@
         <v>145</v>
       </c>
       <c r="K142" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>394.2</v>
@@ -7521,7 +7543,7 @@
         <v>146</v>
       </c>
       <c r="K143" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>394.2</v>
@@ -7572,7 +7594,7 @@
         <v>149</v>
       </c>
       <c r="K144" t="n">
-        <v>-11.11111111111111</v>
+        <v>-40</v>
       </c>
       <c r="L144" t="n">
         <v>393.9</v>
@@ -7623,7 +7645,7 @@
         <v>152</v>
       </c>
       <c r="K145" t="n">
-        <v>-23.80952380952381</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L145" t="n">
         <v>393.2</v>
@@ -7674,7 +7696,7 @@
         <v>153</v>
       </c>
       <c r="K146" t="n">
-        <v>-23.80952380952381</v>
+        <v>-80</v>
       </c>
       <c r="L146" t="n">
         <v>392.2</v>
@@ -7725,7 +7747,7 @@
         <v>153</v>
       </c>
       <c r="K147" t="n">
-        <v>-23.80952380952381</v>
+        <v>-100</v>
       </c>
       <c r="L147" t="n">
         <v>391.4</v>
@@ -7776,7 +7798,7 @@
         <v>154</v>
       </c>
       <c r="K148" t="n">
-        <v>-23.80952380952381</v>
+        <v>-80</v>
       </c>
       <c r="L148" t="n">
         <v>390.6</v>
@@ -7827,7 +7849,7 @@
         <v>155</v>
       </c>
       <c r="K149" t="n">
-        <v>-27.27272727272727</v>
+        <v>-80</v>
       </c>
       <c r="L149" t="n">
         <v>389.7</v>
@@ -7878,7 +7900,7 @@
         <v>155</v>
       </c>
       <c r="K150" t="n">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="L150" t="n">
         <v>388.9</v>
@@ -7929,7 +7951,7 @@
         <v>155</v>
       </c>
       <c r="K151" t="n">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="L151" t="n">
         <v>388.1</v>
@@ -7980,7 +8002,7 @@
         <v>155</v>
       </c>
       <c r="K152" t="n">
-        <v>-33.33333333333333</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L152" t="n">
         <v>387.3</v>
@@ -8031,7 +8053,7 @@
         <v>156</v>
       </c>
       <c r="K153" t="n">
-        <v>-44.44444444444444</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L153" t="n">
         <v>386.5</v>
@@ -8082,7 +8104,7 @@
         <v>158</v>
       </c>
       <c r="K154" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>386.2</v>
@@ -8133,7 +8155,7 @@
         <v>158</v>
       </c>
       <c r="K155" t="n">
-        <v>-36.84210526315789</v>
+        <v>20</v>
       </c>
       <c r="L155" t="n">
         <v>386.2</v>
@@ -8184,7 +8206,7 @@
         <v>159</v>
       </c>
       <c r="K156" t="n">
-        <v>-55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>386.2</v>
@@ -8235,7 +8257,7 @@
         <v>160</v>
       </c>
       <c r="K157" t="n">
-        <v>-41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>386.3</v>
@@ -8286,7 +8308,7 @@
         <v>160</v>
       </c>
       <c r="K158" t="n">
-        <v>-50</v>
+        <v>20</v>
       </c>
       <c r="L158" t="n">
         <v>386.3</v>
@@ -8337,7 +8359,7 @@
         <v>163</v>
       </c>
       <c r="K159" t="n">
-        <v>-26.31578947368421</v>
+        <v>50</v>
       </c>
       <c r="L159" t="n">
         <v>386.7</v>
@@ -8388,7 +8410,7 @@
         <v>166</v>
       </c>
       <c r="K160" t="n">
-        <v>-4.761904761904762</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L160" t="n">
         <v>387.4</v>
@@ -8439,7 +8461,7 @@
         <v>166</v>
       </c>
       <c r="K161" t="n">
-        <v>-4.761904761904762</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L161" t="n">
         <v>388.1</v>
@@ -8490,7 +8512,7 @@
         <v>166</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.761904761904762</v>
+        <v>80</v>
       </c>
       <c r="L162" t="n">
         <v>388.8</v>
@@ -8541,7 +8563,7 @@
         <v>166</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L163" t="n">
         <v>389.6</v>
@@ -8592,7 +8614,7 @@
         <v>168</v>
       </c>
       <c r="K164" t="n">
-        <v>26.31578947368421</v>
+        <v>80</v>
       </c>
       <c r="L164" t="n">
         <v>390.4</v>
@@ -8643,7 +8665,7 @@
         <v>168</v>
       </c>
       <c r="K165" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L165" t="n">
         <v>391.2</v>
@@ -8694,7 +8716,7 @@
         <v>170</v>
       </c>
       <c r="K166" t="n">
-        <v>64.70588235294117</v>
+        <v>100</v>
       </c>
       <c r="L166" t="n">
         <v>392.3</v>
@@ -8745,7 +8767,7 @@
         <v>174</v>
       </c>
       <c r="K167" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L167" t="n">
         <v>392.9</v>
@@ -8796,7 +8818,7 @@
         <v>176</v>
       </c>
       <c r="K168" t="n">
-        <v>36.36363636363637</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L168" t="n">
         <v>393.7</v>
@@ -8847,7 +8869,7 @@
         <v>177</v>
       </c>
       <c r="K169" t="n">
-        <v>45.45454545454545</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L169" t="n">
         <v>394.3</v>
@@ -8898,7 +8920,7 @@
         <v>178</v>
       </c>
       <c r="K170" t="n">
-        <v>39.1304347826087</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L170" t="n">
         <v>394.5</v>
@@ -8949,7 +8971,7 @@
         <v>180</v>
       </c>
       <c r="K171" t="n">
-        <v>44</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L171" t="n">
         <v>394.9</v>
@@ -9000,7 +9022,7 @@
         <v>180</v>
       </c>
       <c r="K172" t="n">
-        <v>44</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L172" t="n">
         <v>395.3</v>
@@ -9051,7 +9073,7 @@
         <v>180</v>
       </c>
       <c r="K173" t="n">
-        <v>50</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L173" t="n">
         <v>395.7</v>
@@ -9102,7 +9124,7 @@
         <v>180</v>
       </c>
       <c r="K174" t="n">
-        <v>45.45454545454545</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L174" t="n">
         <v>395.9</v>
@@ -9153,7 +9175,7 @@
         <v>181</v>
       </c>
       <c r="K175" t="n">
-        <v>47.82608695652174</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L175" t="n">
         <v>396.2</v>
@@ -9204,7 +9226,7 @@
         <v>182</v>
       </c>
       <c r="K176" t="n">
-        <v>56.52173913043478</v>
+        <v>75</v>
       </c>
       <c r="L176" t="n">
         <v>396.4</v>
@@ -9255,7 +9277,7 @@
         <v>183</v>
       </c>
       <c r="K177" t="n">
-        <v>47.82608695652174</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L177" t="n">
         <v>396.9</v>
@@ -9306,7 +9328,7 @@
         <v>185</v>
       </c>
       <c r="K178" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>397</v>
@@ -9357,7 +9379,7 @@
         <v>186</v>
       </c>
       <c r="K179" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>396.9</v>
@@ -9408,7 +9430,7 @@
         <v>187</v>
       </c>
       <c r="K180" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>397</v>
@@ -9459,7 +9481,7 @@
         <v>189</v>
       </c>
       <c r="K181" t="n">
-        <v>4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>396.7</v>
@@ -9510,7 +9532,7 @@
         <v>191</v>
       </c>
       <c r="K182" t="n">
-        <v>-4</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L182" t="n">
         <v>396.2</v>
@@ -9561,7 +9583,7 @@
         <v>191</v>
       </c>
       <c r="K183" t="n">
-        <v>-4</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L183" t="n">
         <v>395.7</v>
@@ -9612,7 +9634,7 @@
         <v>192</v>
       </c>
       <c r="K184" t="n">
-        <v>-8.333333333333332</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L184" t="n">
         <v>395.3</v>
@@ -9663,7 +9685,7 @@
         <v>194</v>
       </c>
       <c r="K185" t="n">
-        <v>-15.38461538461539</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L185" t="n">
         <v>394.6</v>
@@ -9714,7 +9736,7 @@
         <v>194</v>
       </c>
       <c r="K186" t="n">
-        <v>-25</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L186" t="n">
         <v>393.8</v>
@@ -9765,7 +9787,7 @@
         <v>196</v>
       </c>
       <c r="K187" t="n">
-        <v>-18.18181818181818</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L187" t="n">
         <v>392.9</v>
@@ -9816,7 +9838,7 @@
         <v>197</v>
       </c>
       <c r="K188" t="n">
-        <v>-23.80952380952381</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L188" t="n">
         <v>392.3</v>
@@ -9867,7 +9889,7 @@
         <v>199</v>
       </c>
       <c r="K189" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>392</v>
@@ -9918,7 +9940,7 @@
         <v>199</v>
       </c>
       <c r="K190" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L190" t="n">
         <v>391.6</v>
@@ -9969,7 +9991,7 @@
         <v>200</v>
       </c>
       <c r="K191" t="n">
-        <v>-30</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L191" t="n">
         <v>391.3</v>
@@ -10020,7 +10042,7 @@
         <v>201</v>
       </c>
       <c r="K192" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L192" t="n">
         <v>391.1</v>
@@ -10122,7 +10144,7 @@
         <v>202</v>
       </c>
       <c r="K194" t="n">
-        <v>-36.36363636363637</v>
+        <v>-25</v>
       </c>
       <c r="L194" t="n">
         <v>390.5</v>
@@ -10173,7 +10195,7 @@
         <v>206</v>
       </c>
       <c r="K195" t="n">
-        <v>-20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L195" t="n">
         <v>390.7</v>
@@ -10224,7 +10246,7 @@
         <v>208</v>
       </c>
       <c r="K196" t="n">
-        <v>-15.38461538461539</v>
+        <v>50</v>
       </c>
       <c r="L196" t="n">
         <v>391.1</v>
@@ -10275,7 +10297,7 @@
         <v>210</v>
       </c>
       <c r="K197" t="n">
-        <v>-3.703703703703703</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L197" t="n">
         <v>391.9</v>
@@ -10326,7 +10348,7 @@
         <v>211</v>
       </c>
       <c r="K198" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L198" t="n">
         <v>392.7</v>
@@ -10377,7 +10399,7 @@
         <v>211</v>
       </c>
       <c r="K199" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L199" t="n">
         <v>393.3</v>
@@ -10428,7 +10450,7 @@
         <v>213</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L200" t="n">
         <v>393.7</v>
@@ -10479,7 +10501,7 @@
         <v>214</v>
       </c>
       <c r="K201" t="n">
-        <v>4</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L201" t="n">
         <v>394.1</v>
@@ -10530,7 +10552,7 @@
         <v>214</v>
       </c>
       <c r="K202" t="n">
-        <v>13.04347826086956</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L202" t="n">
         <v>394.6</v>
@@ -10581,7 +10603,7 @@
         <v>215</v>
       </c>
       <c r="K203" t="n">
-        <v>16.66666666666666</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L203" t="n">
         <v>395.2</v>
@@ -10632,7 +10654,7 @@
         <v>215</v>
       </c>
       <c r="K204" t="n">
-        <v>13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>395.9</v>
@@ -10683,7 +10705,7 @@
         <v>216</v>
       </c>
       <c r="K205" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>396.1</v>
@@ -10734,7 +10756,7 @@
         <v>220</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L206" t="n">
         <v>395.7</v>
@@ -10785,7 +10807,7 @@
         <v>222</v>
       </c>
       <c r="K207" t="n">
-        <v>15.38461538461539</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L207" t="n">
         <v>395.3</v>
@@ -10836,7 +10858,7 @@
         <v>222</v>
       </c>
       <c r="K208" t="n">
-        <v>12</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L208" t="n">
         <v>394.8</v>
@@ -10887,7 +10909,7 @@
         <v>223</v>
       </c>
       <c r="K209" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L209" t="n">
         <v>394.4</v>
@@ -10938,7 +10960,7 @@
         <v>223</v>
       </c>
       <c r="K210" t="n">
-        <v>8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L210" t="n">
         <v>394.2</v>
@@ -10989,7 +11011,7 @@
         <v>225</v>
       </c>
       <c r="K211" t="n">
-        <v>4</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L211" t="n">
         <v>393.9</v>
@@ -11040,7 +11062,7 @@
         <v>226</v>
       </c>
       <c r="K212" t="n">
-        <v>12</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L212" t="n">
         <v>393.7</v>
@@ -11091,7 +11113,7 @@
         <v>227</v>
       </c>
       <c r="K213" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>393.3</v>
@@ -11142,7 +11164,7 @@
         <v>227</v>
       </c>
       <c r="K214" t="n">
-        <v>12</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L214" t="n">
         <v>392.9</v>
@@ -11193,7 +11215,7 @@
         <v>230</v>
       </c>
       <c r="K215" t="n">
-        <v>8.333333333333332</v>
+        <v>40</v>
       </c>
       <c r="L215" t="n">
         <v>392.9</v>
@@ -11244,7 +11266,7 @@
         <v>231</v>
       </c>
       <c r="K216" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>393.4</v>
@@ -11295,7 +11317,7 @@
         <v>233</v>
       </c>
       <c r="K217" t="n">
-        <v>4.347826086956522</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L217" t="n">
         <v>393.9</v>
@@ -11346,7 +11368,7 @@
         <v>235</v>
       </c>
       <c r="K218" t="n">
-        <v>-8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L218" t="n">
         <v>394.2</v>
@@ -11397,7 +11419,7 @@
         <v>235</v>
       </c>
       <c r="K219" t="n">
-        <v>-8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L219" t="n">
         <v>394.4</v>
@@ -11448,7 +11470,7 @@
         <v>236</v>
       </c>
       <c r="K220" t="n">
-        <v>4.347826086956522</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L220" t="n">
         <v>394.7</v>
@@ -11499,7 +11521,7 @@
         <v>238</v>
       </c>
       <c r="K221" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L221" t="n">
         <v>395.4</v>
@@ -11550,7 +11572,7 @@
         <v>238</v>
       </c>
       <c r="K222" t="n">
-        <v>16.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L222" t="n">
         <v>396</v>
@@ -11601,7 +11623,7 @@
         <v>238</v>
       </c>
       <c r="K223" t="n">
-        <v>13.04347826086956</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L223" t="n">
         <v>396.7</v>
@@ -11652,7 +11674,7 @@
         <v>238</v>
       </c>
       <c r="K224" t="n">
-        <v>13.04347826086956</v>
+        <v>50</v>
       </c>
       <c r="L224" t="n">
         <v>397.4</v>
@@ -11703,7 +11725,7 @@
         <v>238</v>
       </c>
       <c r="K225" t="n">
-        <v>18.18181818181818</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L225" t="n">
         <v>397.8</v>
@@ -11754,7 +11776,7 @@
         <v>238</v>
       </c>
       <c r="K226" t="n">
-        <v>44.44444444444444</v>
+        <v>20</v>
       </c>
       <c r="L226" t="n">
         <v>398.1</v>
@@ -11805,7 +11827,7 @@
         <v>239</v>
       </c>
       <c r="K227" t="n">
-        <v>29.41176470588236</v>
+        <v>50</v>
       </c>
       <c r="L227" t="n">
         <v>398.1</v>
@@ -11856,7 +11878,7 @@
         <v>240</v>
       </c>
       <c r="K228" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L228" t="n">
         <v>398.4</v>
@@ -11907,7 +11929,7 @@
         <v>241</v>
       </c>
       <c r="K229" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L229" t="n">
         <v>398.6</v>
@@ -11958,7 +11980,7 @@
         <v>242</v>
       </c>
       <c r="K230" t="n">
-        <v>15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L230" t="n">
         <v>398.6</v>
@@ -12009,7 +12031,7 @@
         <v>243</v>
       </c>
       <c r="K231" t="n">
-        <v>33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L231" t="n">
         <v>398.5</v>
@@ -12060,7 +12082,7 @@
         <v>244</v>
       </c>
       <c r="K232" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>398.5</v>
@@ -12111,7 +12133,7 @@
         <v>244</v>
       </c>
       <c r="K233" t="n">
-        <v>41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>398.5</v>
@@ -12162,7 +12184,7 @@
         <v>245</v>
       </c>
       <c r="K234" t="n">
-        <v>44.44444444444444</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L234" t="n">
         <v>398.6</v>
@@ -12213,7 +12235,7 @@
         <v>245</v>
       </c>
       <c r="K235" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L235" t="n">
         <v>398.7</v>
@@ -12264,7 +12286,7 @@
         <v>245</v>
       </c>
       <c r="K236" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L236" t="n">
         <v>398.8</v>
@@ -12315,7 +12337,7 @@
         <v>246</v>
       </c>
       <c r="K237" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L237" t="n">
         <v>399.1</v>
@@ -12366,7 +12388,7 @@
         <v>248</v>
       </c>
       <c r="K238" t="n">
-        <v>53.84615384615385</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L238" t="n">
         <v>399.5</v>
@@ -12417,7 +12439,7 @@
         <v>248</v>
       </c>
       <c r="K239" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L239" t="n">
         <v>400</v>
@@ -12468,7 +12490,7 @@
         <v>250</v>
       </c>
       <c r="K240" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L240" t="n">
         <v>400.8</v>
@@ -12519,7 +12541,7 @@
         <v>251</v>
       </c>
       <c r="K241" t="n">
-        <v>38.46153846153847</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L241" t="n">
         <v>401.4</v>
@@ -12570,7 +12592,7 @@
         <v>251</v>
       </c>
       <c r="K242" t="n">
-        <v>38.46153846153847</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L242" t="n">
         <v>401.9</v>
@@ -12621,7 +12643,7 @@
         <v>252</v>
       </c>
       <c r="K243" t="n">
-        <v>42.85714285714285</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L243" t="n">
         <v>402.5</v>
@@ -12672,7 +12694,7 @@
         <v>253</v>
       </c>
       <c r="K244" t="n">
-        <v>46.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="L244" t="n">
         <v>403.1</v>
@@ -12723,7 +12745,7 @@
         <v>255</v>
       </c>
       <c r="K245" t="n">
-        <v>52.94117647058824</v>
+        <v>80</v>
       </c>
       <c r="L245" t="n">
         <v>403.9</v>
@@ -12774,7 +12796,7 @@
         <v>260</v>
       </c>
       <c r="K246" t="n">
-        <v>18.18181818181818</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L246" t="n">
         <v>404.2</v>
@@ -12825,7 +12847,7 @@
         <v>263</v>
       </c>
       <c r="K247" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L247" t="n">
         <v>404.7</v>
@@ -12876,7 +12898,7 @@
         <v>263</v>
       </c>
       <c r="K248" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L248" t="n">
         <v>405</v>
@@ -12927,7 +12949,7 @@
         <v>269</v>
       </c>
       <c r="K249" t="n">
-        <v>7.142857142857142</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L249" t="n">
         <v>404.7</v>
@@ -12978,7 +13000,7 @@
         <v>269</v>
       </c>
       <c r="K250" t="n">
-        <v>11.11111111111111</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L250" t="n">
         <v>404.2</v>
@@ -13029,7 +13051,7 @@
         <v>269</v>
       </c>
       <c r="K251" t="n">
-        <v>7.692307692307693</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L251" t="n">
         <v>403.8</v>
@@ -13080,7 +13102,7 @@
         <v>269</v>
       </c>
       <c r="K252" t="n">
-        <v>4</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L252" t="n">
         <v>403.4</v>
@@ -13131,7 +13153,7 @@
         <v>270</v>
       </c>
       <c r="K253" t="n">
-        <v>7.692307692307693</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L253" t="n">
         <v>403</v>
@@ -13182,7 +13204,7 @@
         <v>271</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L254" t="n">
         <v>402.4</v>
@@ -13233,7 +13255,7 @@
         <v>272</v>
       </c>
       <c r="K255" t="n">
-        <v>-3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>401.5</v>
@@ -13284,7 +13306,7 @@
         <v>272</v>
       </c>
       <c r="K256" t="n">
-        <v>-3.703703703703703</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L256" t="n">
         <v>401.1</v>
@@ -13335,7 +13357,7 @@
         <v>272</v>
       </c>
       <c r="K257" t="n">
-        <v>-7.692307692307693</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L257" t="n">
         <v>400.4</v>
@@ -13386,7 +13408,7 @@
         <v>273</v>
       </c>
       <c r="K258" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L258" t="n">
         <v>399.6</v>
@@ -13437,7 +13459,7 @@
         <v>274</v>
       </c>
       <c r="K259" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L259" t="n">
         <v>399.3</v>
@@ -13488,7 +13510,7 @@
         <v>275</v>
       </c>
       <c r="K260" t="n">
-        <v>-36</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L260" t="n">
         <v>398.9</v>
@@ -13539,7 +13561,7 @@
         <v>277</v>
       </c>
       <c r="K261" t="n">
-        <v>-38.46153846153847</v>
+        <v>-75</v>
       </c>
       <c r="L261" t="n">
         <v>398.3</v>
@@ -13590,7 +13612,7 @@
         <v>278</v>
       </c>
       <c r="K262" t="n">
-        <v>-33.33333333333333</v>
+        <v>-75</v>
       </c>
       <c r="L262" t="n">
         <v>397.8</v>
@@ -13641,7 +13663,7 @@
         <v>282</v>
       </c>
       <c r="K263" t="n">
-        <v>-20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L263" t="n">
         <v>397.6</v>
@@ -13692,7 +13714,7 @@
         <v>284</v>
       </c>
       <c r="K264" t="n">
-        <v>-29.03225806451613</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L264" t="n">
         <v>397.3</v>
@@ -13743,7 +13765,7 @@
         <v>290</v>
       </c>
       <c r="K265" t="n">
-        <v>-14.28571428571428</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L265" t="n">
         <v>397.7</v>
@@ -13794,7 +13816,7 @@
         <v>299</v>
       </c>
       <c r="K266" t="n">
-        <v>23.07692307692308</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L266" t="n">
         <v>399</v>
@@ -13845,7 +13867,7 @@
         <v>301</v>
       </c>
       <c r="K267" t="n">
-        <v>10.52631578947368</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L267" t="n">
         <v>400.1</v>
@@ -13896,7 +13918,7 @@
         <v>303</v>
       </c>
       <c r="K268" t="n">
-        <v>5</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L268" t="n">
         <v>401.1</v>
@@ -13947,7 +13969,7 @@
         <v>306</v>
       </c>
       <c r="K269" t="n">
-        <v>29.72972972972973</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L269" t="n">
         <v>402.5</v>
@@ -13998,7 +14020,7 @@
         <v>310</v>
       </c>
       <c r="K270" t="n">
-        <v>17.07317073170732</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L270" t="n">
         <v>403.6</v>
@@ -14049,7 +14071,7 @@
         <v>310</v>
       </c>
       <c r="K271" t="n">
-        <v>17.07317073170732</v>
+        <v>37.5</v>
       </c>
       <c r="L271" t="n">
         <v>404.9</v>
@@ -14100,7 +14122,7 @@
         <v>310</v>
       </c>
       <c r="K272" t="n">
-        <v>17.07317073170732</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L272" t="n">
         <v>406.1</v>
@@ -14151,7 +14173,7 @@
         <v>311</v>
       </c>
       <c r="K273" t="n">
-        <v>12.19512195121951</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>406.8</v>
@@ -14202,7 +14224,7 @@
         <v>312</v>
       </c>
       <c r="K274" t="n">
-        <v>17.07317073170732</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L274" t="n">
         <v>407.8</v>
@@ -14253,7 +14275,7 @@
         <v>314</v>
       </c>
       <c r="K275" t="n">
-        <v>14.28571428571428</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L275" t="n">
         <v>408</v>
@@ -14304,7 +14326,7 @@
         <v>314</v>
       </c>
       <c r="K276" t="n">
-        <v>14.28571428571428</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L276" t="n">
         <v>407.3</v>
@@ -14355,7 +14377,7 @@
         <v>316</v>
       </c>
       <c r="K277" t="n">
-        <v>18.18181818181818</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L277" t="n">
         <v>407</v>
@@ -14406,7 +14428,7 @@
         <v>319</v>
       </c>
       <c r="K278" t="n">
-        <v>13.04347826086956</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L278" t="n">
         <v>406.6</v>
@@ -14457,7 +14479,7 @@
         <v>320</v>
       </c>
       <c r="K279" t="n">
-        <v>13.04347826086956</v>
+        <v>-40</v>
       </c>
       <c r="L279" t="n">
         <v>405.8</v>
@@ -14508,7 +14530,7 @@
         <v>322</v>
       </c>
       <c r="K280" t="n">
-        <v>19.14893617021277</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L280" t="n">
         <v>405.6</v>
@@ -14559,7 +14581,7 @@
         <v>322</v>
       </c>
       <c r="K281" t="n">
-        <v>24.44444444444444</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L281" t="n">
         <v>405.4</v>
@@ -14610,7 +14632,7 @@
         <v>322</v>
       </c>
       <c r="K282" t="n">
-        <v>22.72727272727273</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L282" t="n">
         <v>405.2</v>
@@ -14661,7 +14683,7 @@
         <v>324</v>
       </c>
       <c r="K283" t="n">
-        <v>9.523809523809524</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L283" t="n">
         <v>404.9</v>
@@ -14712,7 +14734,7 @@
         <v>326</v>
       </c>
       <c r="K284" t="n">
-        <v>19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>404.7</v>
@@ -14763,7 +14785,7 @@
         <v>329</v>
       </c>
       <c r="K285" t="n">
-        <v>-2.564102564102564</v>
+        <v>-20</v>
       </c>
       <c r="L285" t="n">
         <v>404.4</v>
@@ -14814,7 +14836,7 @@
         <v>332</v>
       </c>
       <c r="K286" t="n">
-        <v>-21.21212121212121</v>
+        <v>-12.5</v>
       </c>
       <c r="L286" t="n">
         <v>404.4</v>
@@ -14865,7 +14887,7 @@
         <v>335</v>
       </c>
       <c r="K287" t="n">
-        <v>-23.52941176470588</v>
+        <v>-12.5</v>
       </c>
       <c r="L287" t="n">
         <v>403.9</v>
@@ -14916,7 +14938,7 @@
         <v>336</v>
       </c>
       <c r="K288" t="n">
-        <v>-21.21212121212121</v>
+        <v>-12.5</v>
       </c>
       <c r="L288" t="n">
         <v>403.6</v>
@@ -14967,7 +14989,7 @@
         <v>337</v>
       </c>
       <c r="K289" t="n">
-        <v>-35.48387096774194</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>403.3</v>
@@ -15018,7 +15040,7 @@
         <v>338</v>
       </c>
       <c r="K290" t="n">
-        <v>-21.42857142857143</v>
+        <v>-25</v>
       </c>
       <c r="L290" t="n">
         <v>402.9</v>
@@ -15069,7 +15091,7 @@
         <v>340</v>
       </c>
       <c r="K291" t="n">
-        <v>-26.66666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>402.3</v>
@@ -15120,7 +15142,7 @@
         <v>341</v>
       </c>
       <c r="K292" t="n">
-        <v>-29.03225806451613</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L292" t="n">
         <v>401.6</v>
@@ -15171,7 +15193,7 @@
         <v>341</v>
       </c>
       <c r="K293" t="n">
-        <v>-26.66666666666667</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L293" t="n">
         <v>401.1</v>
@@ -15222,7 +15244,7 @@
         <v>342</v>
       </c>
       <c r="K294" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L294" t="n">
         <v>400.3</v>
@@ -15273,7 +15295,7 @@
         <v>349</v>
       </c>
       <c r="K295" t="n">
-        <v>-2.857142857142857</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L295" t="n">
         <v>400.5</v>
@@ -15324,7 +15346,7 @@
         <v>352</v>
       </c>
       <c r="K296" t="n">
-        <v>-10.52631578947368</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L296" t="n">
         <v>400.1</v>
@@ -15375,7 +15397,7 @@
         <v>361</v>
       </c>
       <c r="K297" t="n">
-        <v>6.666666666666667</v>
+        <v>36</v>
       </c>
       <c r="L297" t="n">
         <v>400.9</v>
@@ -15426,7 +15448,7 @@
         <v>365</v>
       </c>
       <c r="K298" t="n">
-        <v>4.347826086956522</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L298" t="n">
         <v>401.4</v>
@@ -15477,7 +15499,7 @@
         <v>368</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L299" t="n">
         <v>401.7</v>
@@ -15528,7 +15550,7 @@
         <v>368</v>
       </c>
       <c r="K300" t="n">
-        <v>-4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L300" t="n">
         <v>401.9</v>
@@ -15579,7 +15601,7 @@
         <v>368</v>
       </c>
       <c r="K301" t="n">
-        <v>-4.347826086956522</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L301" t="n">
         <v>402.3</v>
@@ -15630,7 +15652,7 @@
         <v>369</v>
       </c>
       <c r="K302" t="n">
-        <v>-6.382978723404255</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L302" t="n">
         <v>402.7</v>
@@ -15681,7 +15703,7 @@
         <v>370</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L303" t="n">
         <v>403.2</v>
@@ -15732,7 +15754,7 @@
         <v>371</v>
       </c>
       <c r="K304" t="n">
-        <v>-6.666666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L304" t="n">
         <v>403.7</v>
@@ -15783,7 +15805,7 @@
         <v>374</v>
       </c>
       <c r="K305" t="n">
-        <v>6.666666666666667</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L305" t="n">
         <v>403.8</v>
@@ -15834,7 +15856,7 @@
         <v>375</v>
       </c>
       <c r="K306" t="n">
-        <v>2.325581395348837</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L306" t="n">
         <v>404.3</v>
@@ -15885,7 +15907,7 @@
         <v>376</v>
       </c>
       <c r="K307" t="n">
-        <v>7.317073170731707</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L307" t="n">
         <v>403.8</v>
@@ -15936,7 +15958,7 @@
         <v>377</v>
       </c>
       <c r="K308" t="n">
-        <v>12.19512195121951</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>403.8</v>
@@ -15987,7 +16009,7 @@
         <v>377</v>
       </c>
       <c r="K309" t="n">
-        <v>15</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L309" t="n">
         <v>404.1</v>
@@ -16038,7 +16060,7 @@
         <v>377</v>
       </c>
       <c r="K310" t="n">
-        <v>12.82051282051282</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L310" t="n">
         <v>404.4</v>
@@ -16089,7 +16111,7 @@
         <v>378</v>
       </c>
       <c r="K311" t="n">
-        <v>21.05263157894737</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L311" t="n">
         <v>404.8</v>
@@ -16140,7 +16162,7 @@
         <v>378</v>
       </c>
       <c r="K312" t="n">
-        <v>24.32432432432433</v>
+        <v>50</v>
       </c>
       <c r="L312" t="n">
         <v>405.3</v>
@@ -16191,7 +16213,7 @@
         <v>379</v>
       </c>
       <c r="K313" t="n">
-        <v>21.05263157894737</v>
+        <v>50</v>
       </c>
       <c r="L313" t="n">
         <v>405.6</v>
@@ -16242,7 +16264,7 @@
         <v>379</v>
       </c>
       <c r="K314" t="n">
-        <v>24.32432432432433</v>
+        <v>20</v>
       </c>
       <c r="L314" t="n">
         <v>406</v>
@@ -16293,7 +16315,7 @@
         <v>379</v>
       </c>
       <c r="K315" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>406.1</v>
@@ -16344,7 +16366,7 @@
         <v>380</v>
       </c>
       <c r="K316" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>406</v>
@@ -16395,7 +16417,7 @@
         <v>382</v>
       </c>
       <c r="K317" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L317" t="n">
         <v>405.8</v>
@@ -16446,7 +16468,7 @@
         <v>384</v>
       </c>
       <c r="K318" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L318" t="n">
         <v>405.7</v>
@@ -16497,7 +16519,7 @@
         <v>384</v>
       </c>
       <c r="K319" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L319" t="n">
         <v>405.6</v>
@@ -16548,7 +16570,7 @@
         <v>386</v>
       </c>
       <c r="K320" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>405.7</v>
@@ -16599,7 +16621,7 @@
         <v>386</v>
       </c>
       <c r="K321" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>405.7</v>
@@ -16650,7 +16672,7 @@
         <v>386</v>
       </c>
       <c r="K322" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L322" t="n">
         <v>405.7</v>
@@ -16701,7 +16723,7 @@
         <v>386</v>
       </c>
       <c r="K323" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L323" t="n">
         <v>405.8</v>
@@ -16752,7 +16774,7 @@
         <v>386</v>
       </c>
       <c r="K324" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L324" t="n">
         <v>405.9</v>
@@ -16803,7 +16825,7 @@
         <v>387</v>
       </c>
       <c r="K325" t="n">
-        <v>23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L325" t="n">
         <v>406.1</v>
@@ -16854,7 +16876,7 @@
         <v>389</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L326" t="n">
         <v>406.2</v>
@@ -16905,7 +16927,7 @@
         <v>391</v>
       </c>
       <c r="K327" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L327" t="n">
         <v>406.7</v>
@@ -16956,7 +16978,7 @@
         <v>392</v>
       </c>
       <c r="K328" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L328" t="n">
         <v>407.1</v>
@@ -17007,7 +17029,7 @@
         <v>393</v>
       </c>
       <c r="K329" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L329" t="n">
         <v>407.4</v>
@@ -17058,7 +17080,7 @@
         <v>397</v>
       </c>
       <c r="K330" t="n">
-        <v>-10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L330" t="n">
         <v>407.1</v>
@@ -17109,7 +17131,7 @@
         <v>399</v>
       </c>
       <c r="K331" t="n">
-        <v>-23.80952380952381</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L331" t="n">
         <v>406.6</v>
@@ -17160,7 +17182,7 @@
         <v>399</v>
       </c>
       <c r="K332" t="n">
-        <v>-23.80952380952381</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L332" t="n">
         <v>406.1</v>
@@ -17211,7 +17233,7 @@
         <v>400</v>
       </c>
       <c r="K333" t="n">
-        <v>-23.80952380952381</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L333" t="n">
         <v>405.5</v>
@@ -17262,7 +17284,7 @@
         <v>401</v>
       </c>
       <c r="K334" t="n">
-        <v>-27.27272727272727</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L334" t="n">
         <v>404.8</v>
@@ -17313,7 +17335,7 @@
         <v>401</v>
       </c>
       <c r="K335" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L335" t="n">
         <v>404</v>
@@ -17364,7 +17386,7 @@
         <v>403</v>
       </c>
       <c r="K336" t="n">
-        <v>-13.04347826086956</v>
+        <v>-50</v>
       </c>
       <c r="L336" t="n">
         <v>403.6</v>
@@ -17415,7 +17437,7 @@
         <v>407</v>
       </c>
       <c r="K337" t="n">
-        <v>12</v>
+        <v>-20</v>
       </c>
       <c r="L337" t="n">
         <v>403.4</v>
@@ -17466,7 +17488,7 @@
         <v>407</v>
       </c>
       <c r="K338" t="n">
-        <v>4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L338" t="n">
         <v>403.1</v>
@@ -17517,7 +17539,7 @@
         <v>411</v>
       </c>
       <c r="K339" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L339" t="n">
         <v>402.5</v>
@@ -17568,7 +17590,7 @@
         <v>415</v>
       </c>
       <c r="K340" t="n">
-        <v>-31.03448275862069</v>
+        <v>-25</v>
       </c>
       <c r="L340" t="n">
         <v>401.9</v>
@@ -17619,7 +17641,7 @@
         <v>418</v>
       </c>
       <c r="K341" t="n">
-        <v>-37.5</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L341" t="n">
         <v>401.2</v>
@@ -17670,7 +17692,7 @@
         <v>420</v>
       </c>
       <c r="K342" t="n">
-        <v>-41.17647058823529</v>
+        <v>-40</v>
       </c>
       <c r="L342" t="n">
         <v>400.3</v>
@@ -17721,7 +17743,7 @@
         <v>420</v>
       </c>
       <c r="K343" t="n">
-        <v>-41.17647058823529</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L343" t="n">
         <v>399.5</v>
@@ -17772,7 +17794,7 @@
         <v>421</v>
       </c>
       <c r="K344" t="n">
-        <v>-37.14285714285715</v>
+        <v>-30</v>
       </c>
       <c r="L344" t="n">
         <v>398.9</v>
@@ -17823,7 +17845,7 @@
         <v>423</v>
       </c>
       <c r="K345" t="n">
-        <v>-44.44444444444444</v>
+        <v>-50</v>
       </c>
       <c r="L345" t="n">
         <v>398.1</v>
@@ -17874,7 +17896,7 @@
         <v>427</v>
       </c>
       <c r="K346" t="n">
-        <v>-26.31578947368421</v>
+        <v>-50</v>
       </c>
       <c r="L346" t="n">
         <v>397.5</v>
@@ -17925,7 +17947,7 @@
         <v>427</v>
       </c>
       <c r="K347" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L347" t="n">
         <v>396.5</v>
@@ -17976,7 +17998,7 @@
         <v>427</v>
       </c>
       <c r="K348" t="n">
-        <v>-37.14285714285715</v>
+        <v>-37.5</v>
       </c>
       <c r="L348" t="n">
         <v>395.5</v>
@@ -18027,7 +18049,7 @@
         <v>428</v>
       </c>
       <c r="K349" t="n">
-        <v>-31.42857142857143</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L349" t="n">
         <v>395</v>
@@ -18078,7 +18100,7 @@
         <v>429</v>
       </c>
       <c r="K350" t="n">
-        <v>-18.75</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L350" t="n">
         <v>395</v>
@@ -18129,7 +18151,7 @@
         <v>429</v>
       </c>
       <c r="K351" t="n">
-        <v>-13.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L351" t="n">
         <v>395.3</v>
@@ -18180,7 +18202,7 @@
         <v>430</v>
       </c>
       <c r="K352" t="n">
-        <v>-16.12903225806452</v>
+        <v>40</v>
       </c>
       <c r="L352" t="n">
         <v>395.7</v>
@@ -18231,7 +18253,7 @@
         <v>431</v>
       </c>
       <c r="K353" t="n">
-        <v>-9.67741935483871</v>
+        <v>40</v>
       </c>
       <c r="L353" t="n">
         <v>396.2</v>
@@ -18282,7 +18304,7 @@
         <v>433</v>
       </c>
       <c r="K354" t="n">
-        <v>-12.5</v>
+        <v>40</v>
       </c>
       <c r="L354" t="n">
         <v>396.4</v>
@@ -18333,7 +18355,7 @@
         <v>433</v>
       </c>
       <c r="K355" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>396.8</v>
@@ -18384,7 +18406,7 @@
         <v>434</v>
       </c>
       <c r="K356" t="n">
-        <v>-16.12903225806452</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L356" t="n">
         <v>396.9</v>
@@ -18435,7 +18457,7 @@
         <v>434</v>
       </c>
       <c r="K357" t="n">
-        <v>-33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L357" t="n">
         <v>397</v>
@@ -18486,7 +18508,7 @@
         <v>435</v>
       </c>
       <c r="K358" t="n">
-        <v>-28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L358" t="n">
         <v>397.2</v>
@@ -18537,7 +18559,7 @@
         <v>438</v>
       </c>
       <c r="K359" t="n">
-        <v>-25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>397</v>
@@ -18588,7 +18610,7 @@
         <v>438</v>
       </c>
       <c r="K360" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L360" t="n">
         <v>396.7</v>
@@ -18639,7 +18661,7 @@
         <v>441</v>
       </c>
       <c r="K361" t="n">
-        <v>13.04347826086956</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L361" t="n">
         <v>396.7</v>
@@ -18690,7 +18712,7 @@
         <v>442</v>
       </c>
       <c r="K362" t="n">
-        <v>27.27272727272727</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L362" t="n">
         <v>396.9</v>
@@ -18741,7 +18763,7 @@
         <v>442</v>
       </c>
       <c r="K363" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L363" t="n">
         <v>397</v>
@@ -18792,7 +18814,7 @@
         <v>446</v>
       </c>
       <c r="K364" t="n">
-        <v>4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L364" t="n">
         <v>396.9</v>
@@ -18843,7 +18865,7 @@
         <v>446</v>
       </c>
       <c r="K365" t="n">
-        <v>13.04347826086956</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L365" t="n">
         <v>396.8</v>
@@ -18894,7 +18916,7 @@
         <v>446</v>
       </c>
       <c r="K366" t="n">
-        <v>-5.263157894736842</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L366" t="n">
         <v>396.6</v>
@@ -18945,7 +18967,7 @@
         <v>447</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L367" t="n">
         <v>396.5</v>
@@ -18996,7 +19018,7 @@
         <v>450</v>
       </c>
       <c r="K368" t="n">
-        <v>-13.04347826086956</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L368" t="n">
         <v>396</v>
@@ -19047,7 +19069,7 @@
         <v>451</v>
       </c>
       <c r="K369" t="n">
-        <v>-21.73913043478261</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L369" t="n">
         <v>395.7</v>
@@ -19098,7 +19120,7 @@
         <v>453</v>
       </c>
       <c r="K370" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L370" t="n">
         <v>395.2</v>
@@ -19149,7 +19171,7 @@
         <v>454</v>
       </c>
       <c r="K371" t="n">
-        <v>-36</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L371" t="n">
         <v>394.3</v>
@@ -19200,7 +19222,7 @@
         <v>456</v>
       </c>
       <c r="K372" t="n">
-        <v>-38.46153846153847</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L372" t="n">
         <v>393.1</v>
@@ -19251,7 +19273,7 @@
         <v>457</v>
       </c>
       <c r="K373" t="n">
-        <v>-38.46153846153847</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L373" t="n">
         <v>392</v>
@@ -19302,7 +19324,7 @@
         <v>457</v>
       </c>
       <c r="K374" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L374" t="n">
         <v>391.3</v>
@@ -19353,7 +19375,7 @@
         <v>458</v>
       </c>
       <c r="K375" t="n">
-        <v>-28</v>
+        <v>-50</v>
       </c>
       <c r="L375" t="n">
         <v>390.7</v>
@@ -19404,7 +19426,7 @@
         <v>460</v>
       </c>
       <c r="K376" t="n">
-        <v>-38.46153846153847</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L376" t="n">
         <v>389.9</v>
@@ -19455,7 +19477,7 @@
         <v>462</v>
       </c>
       <c r="K377" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L377" t="n">
         <v>389.2</v>
@@ -19506,7 +19528,7 @@
         <v>466</v>
       </c>
       <c r="K378" t="n">
-        <v>-16.12903225806452</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L378" t="n">
         <v>389.2</v>
@@ -19557,7 +19579,7 @@
         <v>466</v>
       </c>
       <c r="K379" t="n">
-        <v>-7.142857142857142</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L379" t="n">
         <v>389.3</v>
@@ -19608,7 +19630,7 @@
         <v>466</v>
       </c>
       <c r="K380" t="n">
-        <v>-7.142857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L380" t="n">
         <v>389.6</v>
@@ -19659,7 +19681,7 @@
         <v>467</v>
       </c>
       <c r="K381" t="n">
-        <v>-15.38461538461539</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L381" t="n">
         <v>390.1</v>
@@ -19710,7 +19732,7 @@
         <v>468</v>
       </c>
       <c r="K382" t="n">
-        <v>-15.38461538461539</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L382" t="n">
         <v>390.9</v>
@@ -19761,7 +19783,7 @@
         <v>469</v>
       </c>
       <c r="K383" t="n">
-        <v>-18.51851851851852</v>
+        <v>50</v>
       </c>
       <c r="L383" t="n">
         <v>391.5</v>
@@ -19812,7 +19834,7 @@
         <v>471</v>
       </c>
       <c r="K384" t="n">
-        <v>-12</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L384" t="n">
         <v>391.9</v>
@@ -19863,7 +19885,7 @@
         <v>475</v>
       </c>
       <c r="K385" t="n">
-        <v>-24.13793103448276</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L385" t="n">
         <v>391.8</v>
@@ -19914,7 +19936,7 @@
         <v>477</v>
       </c>
       <c r="K386" t="n">
-        <v>-29.03225806451613</v>
+        <v>-20</v>
       </c>
       <c r="L386" t="n">
         <v>391.7</v>
@@ -19965,7 +19987,7 @@
         <v>477</v>
       </c>
       <c r="K387" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L387" t="n">
         <v>391.4</v>
@@ -20016,7 +20038,7 @@
         <v>477</v>
       </c>
       <c r="K388" t="n">
-        <v>-25.92592592592592</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L388" t="n">
         <v>390.7</v>
@@ -20067,7 +20089,7 @@
         <v>477</v>
       </c>
       <c r="K389" t="n">
-        <v>-23.07692307692308</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L389" t="n">
         <v>390</v>
@@ -20118,7 +20140,7 @@
         <v>477</v>
       </c>
       <c r="K390" t="n">
-        <v>-16.66666666666666</v>
+        <v>-80</v>
       </c>
       <c r="L390" t="n">
         <v>389.3</v>
@@ -20169,7 +20191,7 @@
         <v>479</v>
       </c>
       <c r="K391" t="n">
-        <v>-4</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L391" t="n">
         <v>388.7</v>
@@ -20220,7 +20242,7 @@
         <v>479</v>
       </c>
       <c r="K392" t="n">
-        <v>4.347826086956522</v>
+        <v>-60</v>
       </c>
       <c r="L392" t="n">
         <v>388</v>
@@ -20271,7 +20293,7 @@
         <v>481</v>
       </c>
       <c r="K393" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L393" t="n">
         <v>387.6</v>
@@ -20373,7 +20395,7 @@
         <v>483</v>
       </c>
       <c r="K395" t="n">
-        <v>-4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L395" t="n">
         <v>387.2</v>
@@ -20424,7 +20446,7 @@
         <v>484</v>
       </c>
       <c r="K396" t="n">
-        <v>8.333333333333332</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L396" t="n">
         <v>387.5</v>
@@ -20475,7 +20497,7 @@
         <v>485</v>
       </c>
       <c r="K397" t="n">
-        <v>-4.347826086956522</v>
+        <v>25</v>
       </c>
       <c r="L397" t="n">
         <v>387.7</v>
@@ -20526,7 +20548,7 @@
         <v>487</v>
       </c>
       <c r="K398" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>387.7</v>
@@ -20577,7 +20599,7 @@
         <v>490</v>
       </c>
       <c r="K399" t="n">
-        <v>-41.66666666666667</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L399" t="n">
         <v>387.4</v>
@@ -20628,7 +20650,7 @@
         <v>490</v>
       </c>
       <c r="K400" t="n">
-        <v>-41.66666666666667</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L400" t="n">
         <v>387.1</v>
@@ -20679,7 +20701,7 @@
         <v>492</v>
       </c>
       <c r="K401" t="n">
-        <v>-36</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L401" t="n">
         <v>386.8</v>
@@ -20730,7 +20752,7 @@
         <v>493</v>
       </c>
       <c r="K402" t="n">
-        <v>-36</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>386.6</v>
@@ -20781,7 +20803,7 @@
         <v>493</v>
       </c>
       <c r="K403" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L403" t="n">
         <v>386.2</v>
@@ -20832,7 +20854,7 @@
         <v>494</v>
       </c>
       <c r="K404" t="n">
-        <v>-21.73913043478261</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L404" t="n">
         <v>386.1</v>
@@ -20883,7 +20905,7 @@
         <v>496</v>
       </c>
       <c r="K405" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L405" t="n">
         <v>385.8</v>
@@ -20934,7 +20956,7 @@
         <v>499</v>
       </c>
       <c r="K406" t="n">
-        <v>-18.18181818181818</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L406" t="n">
         <v>385.1</v>
@@ -20985,7 +21007,7 @@
         <v>499</v>
       </c>
       <c r="K407" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L407" t="n">
         <v>384.5</v>
@@ -21036,7 +21058,7 @@
         <v>500</v>
       </c>
       <c r="K408" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L408" t="n">
         <v>384</v>
@@ -21087,7 +21109,7 @@
         <v>504</v>
       </c>
       <c r="K409" t="n">
-        <v>-3.703703703703703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L409" t="n">
         <v>384.2</v>
@@ -21138,7 +21160,7 @@
         <v>504</v>
       </c>
       <c r="K410" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>384.4</v>
@@ -21189,7 +21211,7 @@
         <v>507</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L411" t="n">
         <v>384.7</v>
@@ -21240,7 +21262,7 @@
         <v>509</v>
       </c>
       <c r="K412" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>384.7</v>
@@ -21291,7 +21313,7 @@
         <v>510</v>
       </c>
       <c r="K413" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>384.8</v>
@@ -21342,7 +21364,7 @@
         <v>511</v>
       </c>
       <c r="K414" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L414" t="n">
         <v>384.9</v>
@@ -21393,7 +21415,7 @@
         <v>511</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L415" t="n">
         <v>385.2</v>
@@ -21444,7 +21466,7 @@
         <v>513</v>
       </c>
       <c r="K416" t="n">
-        <v>3.448275862068965</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L416" t="n">
         <v>386</v>
@@ -21495,7 +21517,7 @@
         <v>515</v>
       </c>
       <c r="K417" t="n">
-        <v>13.33333333333333</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L417" t="n">
         <v>387</v>
@@ -21546,7 +21568,7 @@
         <v>517</v>
       </c>
       <c r="K418" t="n">
-        <v>13.33333333333333</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L418" t="n">
         <v>387.9</v>
@@ -21597,7 +21619,7 @@
         <v>518</v>
       </c>
       <c r="K419" t="n">
-        <v>21.42857142857143</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L419" t="n">
         <v>388.3</v>
@@ -21648,7 +21670,7 @@
         <v>519</v>
       </c>
       <c r="K420" t="n">
-        <v>24.13793103448276</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L420" t="n">
         <v>388.8</v>
@@ -21699,7 +21721,7 @@
         <v>522</v>
       </c>
       <c r="K421" t="n">
-        <v>6.666666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L421" t="n">
         <v>388.7</v>
@@ -21750,7 +21772,7 @@
         <v>523</v>
       </c>
       <c r="K422" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L422" t="n">
         <v>388.7</v>
@@ -21801,7 +21823,7 @@
         <v>524</v>
       </c>
       <c r="K423" t="n">
-        <v>-3.225806451612903</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L423" t="n">
         <v>388.5</v>
@@ -21852,7 +21874,7 @@
         <v>526</v>
       </c>
       <c r="K424" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L424" t="n">
         <v>388.4</v>
@@ -21903,7 +21925,7 @@
         <v>526</v>
       </c>
       <c r="K425" t="n">
-        <v>6.666666666666667</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L425" t="n">
         <v>388.3</v>
@@ -21954,7 +21976,7 @@
         <v>527</v>
       </c>
       <c r="K426" t="n">
-        <v>14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L426" t="n">
         <v>387.9</v>
@@ -22005,7 +22027,7 @@
         <v>527</v>
       </c>
       <c r="K427" t="n">
-        <v>14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L427" t="n">
         <v>387.3</v>
@@ -22056,7 +22078,7 @@
         <v>529</v>
       </c>
       <c r="K428" t="n">
-        <v>10.3448275862069</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L428" t="n">
         <v>386.7</v>
@@ -22107,7 +22129,7 @@
         <v>531</v>
       </c>
       <c r="K429" t="n">
-        <v>3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L429" t="n">
         <v>386.4</v>
@@ -22158,7 +22180,7 @@
         <v>532</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L430" t="n">
         <v>385.9</v>
@@ -22209,7 +22231,7 @@
         <v>533</v>
       </c>
       <c r="K431" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L431" t="n">
         <v>385.8</v>
@@ -22260,7 +22282,7 @@
         <v>533</v>
       </c>
       <c r="K432" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L432" t="n">
         <v>385.8</v>
@@ -22311,7 +22333,7 @@
         <v>533</v>
       </c>
       <c r="K433" t="n">
-        <v>-4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L433" t="n">
         <v>385.9</v>
@@ -22362,7 +22384,7 @@
         <v>536</v>
       </c>
       <c r="K434" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L434" t="n">
         <v>386.1</v>
@@ -22413,7 +22435,7 @@
         <v>537</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L435" t="n">
         <v>386.2</v>
@@ -22464,7 +22486,7 @@
         <v>539</v>
       </c>
       <c r="K436" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L436" t="n">
         <v>386.6</v>
@@ -22515,7 +22537,7 @@
         <v>542</v>
       </c>
       <c r="K437" t="n">
-        <v>-18.51851851851852</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L437" t="n">
         <v>386.7</v>
@@ -22566,7 +22588,7 @@
         <v>547</v>
       </c>
       <c r="K438" t="n">
-        <v>6.666666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="L438" t="n">
         <v>387.5</v>
@@ -22617,7 +22639,7 @@
         <v>552</v>
       </c>
       <c r="K439" t="n">
-        <v>-5.88235294117647</v>
+        <v>10</v>
       </c>
       <c r="L439" t="n">
         <v>387.6</v>
@@ -22668,7 +22690,7 @@
         <v>552</v>
       </c>
       <c r="K440" t="n">
-        <v>-9.090909090909092</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L440" t="n">
         <v>387.8</v>
@@ -22719,7 +22741,7 @@
         <v>556</v>
       </c>
       <c r="K441" t="n">
-        <v>11.76470588235294</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L441" t="n">
         <v>388.3</v>
@@ -22770,7 +22792,7 @@
         <v>557</v>
       </c>
       <c r="K442" t="n">
-        <v>11.76470588235294</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L442" t="n">
         <v>388.7</v>
@@ -22821,7 +22843,7 @@
         <v>557</v>
       </c>
       <c r="K443" t="n">
-        <v>15.15151515151515</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L443" t="n">
         <v>389.1</v>
@@ -22872,7 +22894,7 @@
         <v>558</v>
       </c>
       <c r="K444" t="n">
-        <v>6.25</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L444" t="n">
         <v>389.1</v>
@@ -22923,7 +22945,7 @@
         <v>559</v>
       </c>
       <c r="K445" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L445" t="n">
         <v>389.3</v>
@@ -22974,7 +22996,7 @@
         <v>560</v>
       </c>
       <c r="K446" t="n">
-        <v>15.15151515151515</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L446" t="n">
         <v>389.4</v>
@@ -23025,7 +23047,7 @@
         <v>563</v>
       </c>
       <c r="K447" t="n">
-        <v>22.22222222222222</v>
+        <v>12.5</v>
       </c>
       <c r="L447" t="n">
         <v>390.1</v>
@@ -23076,7 +23098,7 @@
         <v>563</v>
       </c>
       <c r="K448" t="n">
-        <v>29.41176470588236</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L448" t="n">
         <v>390.3</v>
@@ -23127,7 +23149,7 @@
         <v>565</v>
       </c>
       <c r="K449" t="n">
-        <v>17.64705882352941</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L449" t="n">
         <v>390.8</v>
@@ -23178,7 +23200,7 @@
         <v>565</v>
       </c>
       <c r="K450" t="n">
-        <v>21.21212121212121</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L450" t="n">
         <v>391.3</v>
@@ -23229,7 +23251,7 @@
         <v>565</v>
       </c>
       <c r="K451" t="n">
-        <v>18.75</v>
+        <v>25</v>
       </c>
       <c r="L451" t="n">
         <v>391.4</v>
@@ -23280,7 +23302,7 @@
         <v>566</v>
       </c>
       <c r="K452" t="n">
-        <v>15.15151515151515</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L452" t="n">
         <v>391.5</v>
@@ -23331,7 +23353,7 @@
         <v>566</v>
       </c>
       <c r="K453" t="n">
-        <v>15.15151515151515</v>
+        <v>25</v>
       </c>
       <c r="L453" t="n">
         <v>391.6</v>
@@ -23382,7 +23404,7 @@
         <v>566</v>
       </c>
       <c r="K454" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L454" t="n">
         <v>391.8</v>
@@ -23433,7 +23455,7 @@
         <v>566</v>
       </c>
       <c r="K455" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>391.9</v>
@@ -23484,7 +23506,7 @@
         <v>566</v>
       </c>
       <c r="K456" t="n">
-        <v>3.703703703703703</v>
+        <v>-100</v>
       </c>
       <c r="L456" t="n">
         <v>391.9</v>
@@ -23535,7 +23557,7 @@
         <v>566</v>
       </c>
       <c r="K457" t="n">
-        <v>16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L457" t="n">
         <v>391.6</v>
@@ -23586,7 +23608,7 @@
         <v>566</v>
       </c>
       <c r="K458" t="n">
-        <v>-5.263157894736842</v>
+        <v>-100</v>
       </c>
       <c r="L458" t="n">
         <v>391.3</v>
@@ -23637,7 +23659,7 @@
         <v>567</v>
       </c>
       <c r="K459" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L459" t="n">
         <v>391.3</v>
@@ -23688,7 +23710,7 @@
         <v>569</v>
       </c>
       <c r="K460" t="n">
-        <v>17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L460" t="n">
         <v>391.1</v>
@@ -23790,7 +23812,7 @@
         <v>570</v>
       </c>
       <c r="K462" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>391</v>
@@ -23841,7 +23863,7 @@
         <v>570</v>
       </c>
       <c r="K463" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>391</v>
@@ -23892,7 +23914,7 @@
         <v>572</v>
       </c>
       <c r="K464" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L464" t="n">
         <v>391.2</v>
@@ -23943,7 +23965,7 @@
         <v>573</v>
       </c>
       <c r="K465" t="n">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L465" t="n">
         <v>391.5</v>
@@ -23994,7 +24016,7 @@
         <v>574</v>
       </c>
       <c r="K466" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L466" t="n">
         <v>391.9</v>
@@ -24045,7 +24067,7 @@
         <v>575</v>
       </c>
       <c r="K467" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L467" t="n">
         <v>392.2</v>
@@ -24096,7 +24118,7 @@
         <v>579</v>
       </c>
       <c r="K468" t="n">
-        <v>-25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L468" t="n">
         <v>392.1</v>
@@ -24147,7 +24169,7 @@
         <v>581</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L469" t="n">
         <v>392.1</v>
@@ -24198,7 +24220,7 @@
         <v>583</v>
       </c>
       <c r="K470" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L470" t="n">
         <v>392.1</v>
@@ -24249,7 +24271,7 @@
         <v>584</v>
       </c>
       <c r="K471" t="n">
-        <v>-15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L471" t="n">
         <v>391.9</v>
@@ -24300,7 +24322,7 @@
         <v>584</v>
       </c>
       <c r="K472" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L472" t="n">
         <v>391.7</v>
@@ -24351,7 +24373,7 @@
         <v>584</v>
       </c>
       <c r="K473" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L473" t="n">
         <v>391.5</v>
@@ -24402,7 +24424,7 @@
         <v>586</v>
       </c>
       <c r="K474" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L474" t="n">
         <v>391.3</v>
@@ -24453,7 +24475,7 @@
         <v>587</v>
       </c>
       <c r="K475" t="n">
-        <v>-4.761904761904762</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L475" t="n">
         <v>390.9</v>
@@ -24504,7 +24526,7 @@
         <v>588</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L476" t="n">
         <v>390.5</v>
@@ -24555,7 +24577,7 @@
         <v>590</v>
       </c>
       <c r="K477" t="n">
-        <v>8.333333333333332</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L477" t="n">
         <v>390.4</v>
@@ -24606,7 +24628,7 @@
         <v>593</v>
       </c>
       <c r="K478" t="n">
-        <v>18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L478" t="n">
         <v>391</v>
@@ -24657,7 +24679,7 @@
         <v>596</v>
       </c>
       <c r="K479" t="n">
-        <v>3.448275862068965</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L479" t="n">
         <v>391.1</v>
@@ -24708,7 +24730,7 @@
         <v>598</v>
       </c>
       <c r="K480" t="n">
-        <v>3.448275862068965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L480" t="n">
         <v>391.2</v>
@@ -24759,7 +24781,7 @@
         <v>598</v>
       </c>
       <c r="K481" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L481" t="n">
         <v>391.4</v>
@@ -24810,7 +24832,7 @@
         <v>599</v>
       </c>
       <c r="K482" t="n">
-        <v>-3.448275862068965</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L482" t="n">
         <v>391.5</v>
@@ -24861,7 +24883,7 @@
         <v>603</v>
       </c>
       <c r="K483" t="n">
-        <v>9.090909090909092</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L483" t="n">
         <v>392</v>
@@ -24912,7 +24934,7 @@
         <v>603</v>
       </c>
       <c r="K484" t="n">
-        <v>3.225806451612903</v>
+        <v>25</v>
       </c>
       <c r="L484" t="n">
         <v>392.3</v>
@@ -24963,7 +24985,7 @@
         <v>603</v>
       </c>
       <c r="K485" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L485" t="n">
         <v>392.7</v>
@@ -25014,7 +25036,7 @@
         <v>604</v>
       </c>
       <c r="K486" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L486" t="n">
         <v>392.9</v>
@@ -25065,7 +25087,7 @@
         <v>605</v>
       </c>
       <c r="K487" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>392.8</v>
@@ -25116,7 +25138,7 @@
         <v>606</v>
       </c>
       <c r="K488" t="n">
-        <v>3.703703703703703</v>
+        <v>-20</v>
       </c>
       <c r="L488" t="n">
         <v>392.3</v>
@@ -25167,7 +25189,7 @@
         <v>606</v>
       </c>
       <c r="K489" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>392.1</v>
@@ -25218,7 +25240,7 @@
         <v>606</v>
       </c>
       <c r="K490" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L490" t="n">
         <v>392.1</v>
@@ -25269,7 +25291,7 @@
         <v>606</v>
       </c>
       <c r="K491" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L491" t="n">
         <v>392.1</v>
@@ -25320,7 +25342,7 @@
         <v>607</v>
       </c>
       <c r="K492" t="n">
-        <v>13.04347826086956</v>
+        <v>-50</v>
       </c>
       <c r="L492" t="n">
         <v>392.3</v>
@@ -25371,7 +25393,7 @@
         <v>607</v>
       </c>
       <c r="K493" t="n">
-        <v>13.04347826086956</v>
+        <v>-50</v>
       </c>
       <c r="L493" t="n">
         <v>392.1</v>
@@ -25422,7 +25444,7 @@
         <v>608</v>
       </c>
       <c r="K494" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L494" t="n">
         <v>391.8</v>
@@ -25473,7 +25495,7 @@
         <v>609</v>
       </c>
       <c r="K495" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L495" t="n">
         <v>391.6</v>
@@ -25524,7 +25546,7 @@
         <v>609</v>
       </c>
       <c r="K496" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L496" t="n">
         <v>391.5</v>
@@ -25575,7 +25597,7 @@
         <v>611</v>
       </c>
       <c r="K497" t="n">
-        <v>4.761904761904762</v>
+        <v>60</v>
       </c>
       <c r="L497" t="n">
         <v>391.7</v>
@@ -25626,7 +25648,7 @@
         <v>611</v>
       </c>
       <c r="K498" t="n">
-        <v>-11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L498" t="n">
         <v>392</v>
@@ -25677,7 +25699,7 @@
         <v>614</v>
       </c>
       <c r="K499" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L499" t="n">
         <v>392</v>
@@ -25728,7 +25750,7 @@
         <v>615</v>
       </c>
       <c r="K500" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L500" t="n">
         <v>391.9</v>
@@ -25779,7 +25801,7 @@
         <v>618</v>
       </c>
       <c r="K501" t="n">
-        <v>-20</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L501" t="n">
         <v>391.5</v>
@@ -25830,7 +25852,7 @@
         <v>621</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L502" t="n">
         <v>391.3</v>
@@ -25881,7 +25903,7 @@
         <v>624</v>
       </c>
       <c r="K503" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L503" t="n">
         <v>390.8</v>
@@ -25983,7 +26005,7 @@
         <v>626</v>
       </c>
       <c r="K505" t="n">
-        <v>-39.1304347826087</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L505" t="n">
         <v>389.7</v>
@@ -26034,7 +26056,7 @@
         <v>630</v>
       </c>
       <c r="K506" t="n">
-        <v>-46.15384615384615</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L506" t="n">
         <v>388.6</v>
@@ -26085,7 +26107,7 @@
         <v>631</v>
       </c>
       <c r="K507" t="n">
-        <v>-38.46153846153847</v>
+        <v>-60</v>
       </c>
       <c r="L507" t="n">
         <v>387.4</v>
@@ -26136,7 +26158,7 @@
         <v>632</v>
       </c>
       <c r="K508" t="n">
-        <v>-38.46153846153847</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L508" t="n">
         <v>386.1</v>
@@ -26187,7 +26209,7 @@
         <v>633</v>
       </c>
       <c r="K509" t="n">
-        <v>-33.33333333333333</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L509" t="n">
         <v>385.2</v>
@@ -26238,7 +26260,7 @@
         <v>634</v>
       </c>
       <c r="K510" t="n">
-        <v>-35.71428571428572</v>
+        <v>-37.5</v>
       </c>
       <c r="L510" t="n">
         <v>384.3</v>
@@ -26289,7 +26311,7 @@
         <v>638</v>
       </c>
       <c r="K511" t="n">
-        <v>-18.75</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L511" t="n">
         <v>384.1</v>
@@ -26340,7 +26362,7 @@
         <v>639</v>
       </c>
       <c r="K512" t="n">
-        <v>-18.75</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L512" t="n">
         <v>383.7</v>
@@ -26391,7 +26413,7 @@
         <v>640</v>
       </c>
       <c r="K513" t="n">
-        <v>-21.21212121212121</v>
+        <v>-12.5</v>
       </c>
       <c r="L513" t="n">
         <v>383.5</v>
@@ -26442,7 +26464,7 @@
         <v>644</v>
       </c>
       <c r="K514" t="n">
-        <v>-27.77777777777778</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L514" t="n">
         <v>382.9</v>
@@ -26493,7 +26515,7 @@
         <v>645</v>
       </c>
       <c r="K515" t="n">
-        <v>-27.77777777777778</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L515" t="n">
         <v>382.6</v>
@@ -26544,7 +26566,7 @@
         <v>646</v>
       </c>
       <c r="K516" t="n">
-        <v>-29.72972972972973</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L516" t="n">
         <v>382.6</v>
@@ -26595,7 +26617,7 @@
         <v>647</v>
       </c>
       <c r="K517" t="n">
-        <v>-38.88888888888889</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L517" t="n">
         <v>382.4</v>
@@ -26646,7 +26668,7 @@
         <v>647</v>
       </c>
       <c r="K518" t="n">
-        <v>-38.88888888888889</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L518" t="n">
         <v>382.3</v>
@@ -26697,7 +26719,7 @@
         <v>651</v>
       </c>
       <c r="K519" t="n">
-        <v>-18.91891891891892</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L519" t="n">
         <v>382.5</v>
@@ -26748,7 +26770,7 @@
         <v>652</v>
       </c>
       <c r="K520" t="n">
-        <v>-18.91891891891892</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L520" t="n">
         <v>382.7</v>
@@ -26799,7 +26821,7 @@
         <v>654</v>
       </c>
       <c r="K521" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L521" t="n">
         <v>382.3</v>
@@ -26850,7 +26872,7 @@
         <v>658</v>
       </c>
       <c r="K522" t="n">
-        <v>-13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>382.2</v>
@@ -26901,7 +26923,7 @@
         <v>664</v>
       </c>
       <c r="K523" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="L523" t="n">
         <v>381.6</v>
@@ -26952,7 +26974,7 @@
         <v>665</v>
       </c>
       <c r="K524" t="n">
-        <v>-17.07317073170732</v>
+        <v>-10</v>
       </c>
       <c r="L524" t="n">
         <v>381.5</v>
@@ -27003,7 +27025,7 @@
         <v>665</v>
       </c>
       <c r="K525" t="n">
-        <v>-12.82051282051282</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L525" t="n">
         <v>381.3</v>
@@ -27054,7 +27076,7 @@
         <v>667</v>
       </c>
       <c r="K526" t="n">
-        <v>2.702702702702703</v>
+        <v>10</v>
       </c>
       <c r="L526" t="n">
         <v>381.4</v>
@@ -27105,7 +27127,7 @@
         <v>668</v>
       </c>
       <c r="K527" t="n">
-        <v>-2.702702702702703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L527" t="n">
         <v>381.5</v>
@@ -27156,7 +27178,7 @@
         <v>669</v>
       </c>
       <c r="K528" t="n">
-        <v>-2.702702702702703</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L528" t="n">
         <v>381.5</v>
@@ -27207,7 +27229,7 @@
         <v>669</v>
       </c>
       <c r="K529" t="n">
-        <v>-5.555555555555555</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L529" t="n">
         <v>381.1</v>
@@ -27258,7 +27280,7 @@
         <v>671</v>
       </c>
       <c r="K530" t="n">
-        <v>2.702702702702703</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L530" t="n">
         <v>381</v>
@@ -27309,7 +27331,7 @@
         <v>672</v>
       </c>
       <c r="K531" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L531" t="n">
         <v>381.2</v>
@@ -27360,7 +27382,7 @@
         <v>672</v>
       </c>
       <c r="K532" t="n">
-        <v>-9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L532" t="n">
         <v>381</v>
@@ -27411,7 +27433,7 @@
         <v>672</v>
       </c>
       <c r="K533" t="n">
-        <v>-6.25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L533" t="n">
         <v>381.4</v>
@@ -27462,7 +27484,7 @@
         <v>674</v>
       </c>
       <c r="K534" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L534" t="n">
         <v>381.5</v>
@@ -27513,7 +27535,7 @@
         <v>676</v>
       </c>
       <c r="K535" t="n">
-        <v>3.225806451612903</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L535" t="n">
         <v>381.8</v>
@@ -27564,7 +27586,7 @@
         <v>676</v>
       </c>
       <c r="K536" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L536" t="n">
         <v>381.9</v>
@@ -27615,7 +27637,7 @@
         <v>676</v>
       </c>
       <c r="K537" t="n">
-        <v>10.3448275862069</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L537" t="n">
         <v>382.1</v>
@@ -27666,7 +27688,7 @@
         <v>677</v>
       </c>
       <c r="K538" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L538" t="n">
         <v>382.3</v>
@@ -27717,7 +27739,7 @@
         <v>678</v>
       </c>
       <c r="K539" t="n">
-        <v>-3.703703703703703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L539" t="n">
         <v>382.6</v>
@@ -27768,7 +27790,7 @@
         <v>681</v>
       </c>
       <c r="K540" t="n">
-        <v>-10.3448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L540" t="n">
         <v>382.4</v>
@@ -27819,7 +27841,7 @@
         <v>681</v>
       </c>
       <c r="K541" t="n">
-        <v>-3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L541" t="n">
         <v>382.1</v>
@@ -27870,7 +27892,7 @@
         <v>681</v>
       </c>
       <c r="K542" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L542" t="n">
         <v>381.8</v>
@@ -27921,7 +27943,7 @@
         <v>681</v>
       </c>
       <c r="K543" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L543" t="n">
         <v>381.5</v>
@@ -27972,7 +27994,7 @@
         <v>684</v>
       </c>
       <c r="K544" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>381.7</v>
@@ -28023,7 +28045,7 @@
         <v>685</v>
       </c>
       <c r="K545" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L545" t="n">
         <v>381.8</v>
@@ -28125,7 +28147,7 @@
         <v>686</v>
       </c>
       <c r="K547" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L547" t="n">
         <v>382.1</v>
@@ -28176,7 +28198,7 @@
         <v>686</v>
       </c>
       <c r="K548" t="n">
-        <v>29.41176470588236</v>
+        <v>25</v>
       </c>
       <c r="L548" t="n">
         <v>382.4</v>
@@ -28227,7 +28249,7 @@
         <v>686</v>
       </c>
       <c r="K549" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L549" t="n">
         <v>382.6</v>
@@ -28278,7 +28300,7 @@
         <v>688</v>
       </c>
       <c r="K550" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L550" t="n">
         <v>383.3</v>
@@ -28329,7 +28351,7 @@
         <v>690</v>
       </c>
       <c r="K551" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L551" t="n">
         <v>384.2</v>
@@ -28380,7 +28402,7 @@
         <v>690</v>
       </c>
       <c r="K552" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L552" t="n">
         <v>385.1</v>
@@ -28431,7 +28453,7 @@
         <v>691</v>
       </c>
       <c r="K553" t="n">
-        <v>26.31578947368421</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L553" t="n">
         <v>385.9</v>
@@ -28482,7 +28504,7 @@
         <v>692</v>
       </c>
       <c r="K554" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L554" t="n">
         <v>386.3</v>
@@ -28584,7 +28606,7 @@
         <v>694</v>
       </c>
       <c r="K556" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L556" t="n">
         <v>386.5</v>
@@ -28635,7 +28657,7 @@
         <v>695</v>
       </c>
       <c r="K557" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L557" t="n">
         <v>386.6</v>
@@ -28686,7 +28708,7 @@
         <v>696</v>
       </c>
       <c r="K558" t="n">
-        <v>26.31578947368421</v>
+        <v>20</v>
       </c>
       <c r="L558" t="n">
         <v>386.8</v>

--- a/BackTest/2019-10-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-21 BackTest ZRX.xlsx
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
@@ -568,14 +568,12 @@
         <v>385.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>377</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -609,14 +607,12 @@
         <v>384.9666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>377</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
@@ -738,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
@@ -779,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -820,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
@@ -861,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
@@ -902,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
@@ -984,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
@@ -1060,14 +1056,12 @@
         <v>383.4333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>379</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1101,14 +1095,12 @@
         <v>383.3666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>381</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1142,14 +1134,12 @@
         <v>383.2833333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>381</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1183,14 +1173,12 @@
         <v>383.2166666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>381</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1224,14 +1212,12 @@
         <v>383.1166666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>382</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1265,14 +1251,12 @@
         <v>383.0333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>382</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1306,14 +1290,12 @@
         <v>382.9666666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>383</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1347,14 +1329,12 @@
         <v>382.8666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>381</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1388,14 +1368,12 @@
         <v>382.75</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>383</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1429,14 +1407,12 @@
         <v>382.65</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>383</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1977,14 +1953,12 @@
         <v>381.2</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>380</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -2018,14 +1992,12 @@
         <v>381.0833333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>379</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2059,14 +2031,12 @@
         <v>380.9333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>379</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2100,14 +2070,12 @@
         <v>380.7666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>378</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2141,14 +2109,12 @@
         <v>380.5833333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>378</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2182,14 +2148,12 @@
         <v>380.3833333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>377</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2223,14 +2187,12 @@
         <v>380.2166666666666</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>376</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2264,14 +2226,12 @@
         <v>380.0666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>376</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2305,14 +2265,12 @@
         <v>379.9333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>378</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2346,14 +2304,12 @@
         <v>379.8333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>380</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2387,14 +2343,12 @@
         <v>379.7833333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>380</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2428,14 +2382,12 @@
         <v>379.75</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>381</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2469,14 +2421,12 @@
         <v>379.7333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>382</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2510,14 +2460,12 @@
         <v>379.7333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>383</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2551,14 +2499,12 @@
         <v>379.7833333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>383</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2592,14 +2538,12 @@
         <v>379.85</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>383</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2633,14 +2577,12 @@
         <v>379.9</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>384</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2674,14 +2616,12 @@
         <v>380</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>384</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -9816,16 +9756,18 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M240" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9853,11 +9795,15 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9888,11 +9834,15 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9927,7 +9877,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9962,7 +9916,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9997,7 +9955,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10032,7 +9994,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10063,14 +10029,16 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -20000,13 +19968,17 @@
         <v>387.1</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>382</v>
+      </c>
+      <c r="K531" t="n">
+        <v>382</v>
+      </c>
       <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
@@ -20041,8 +20013,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>382</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20070,14 +20048,22 @@
         <v>386.9</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>383</v>
+      </c>
+      <c r="K533" t="n">
+        <v>382</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-21 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,14 +1276,10 @@
         <v>-1412.173722860382</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>389</v>
-      </c>
-      <c r="J27" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1313,19 +1309,11 @@
         <v>-1411.173722860382</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>387</v>
-      </c>
-      <c r="J28" t="n">
-        <v>389</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1354,19 +1342,11 @@
         <v>-1411.173722860382</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>389</v>
-      </c>
-      <c r="J29" t="n">
-        <v>389</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1395,19 +1375,11 @@
         <v>-3084.303822860383</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>389</v>
-      </c>
-      <c r="J30" t="n">
-        <v>389</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1439,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>389</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1478,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>389</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1517,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>389</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1556,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>389</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1595,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>389</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1634,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>389</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1673,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>389</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1712,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>389</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1751,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>389</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1790,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>389</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1829,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>389</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1868,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>389</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1907,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>389</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1946,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>389</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1985,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>389</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2024,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>389</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2063,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>389</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2102,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>389</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2141,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>389</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2180,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>389</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2219,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>389</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2258,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>389</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2297,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>389</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2336,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>389</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2375,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>389</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2414,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>389</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2453,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>389</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2489,17 +2299,15 @@
         <v>-15821.25552286039</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>377</v>
+      </c>
       <c r="J58" t="n">
-        <v>389</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2528,15 +2336,17 @@
         <v>-15349.01232286038</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>379</v>
+      </c>
       <c r="J59" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2567,11 +2377,13 @@
         <v>-15411.11932286038</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>380</v>
+      </c>
       <c r="J60" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2606,13 +2418,13 @@
         <v>-37953.89302286039</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>378</v>
       </c>
       <c r="J61" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2647,13 +2459,13 @@
         <v>-39742.43802286038</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>377</v>
       </c>
       <c r="J62" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2688,13 +2500,13 @@
         <v>-39440.85092286039</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>375</v>
       </c>
       <c r="J63" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2729,13 +2541,13 @@
         <v>-34626.34662286039</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>377</v>
       </c>
       <c r="J64" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2770,13 +2582,13 @@
         <v>-34655.11642286039</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>379</v>
       </c>
       <c r="J65" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2811,13 +2623,13 @@
         <v>-34655.11642286039</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>377</v>
       </c>
       <c r="J66" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2852,13 +2664,13 @@
         <v>-31748.57752286039</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>377</v>
       </c>
       <c r="J67" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2893,13 +2705,13 @@
         <v>-33098.34692286039</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>378</v>
       </c>
       <c r="J68" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2934,13 +2746,13 @@
         <v>-30320.73342286039</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>377</v>
       </c>
       <c r="J69" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2975,13 +2787,13 @@
         <v>-30232.90342286039</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>378</v>
       </c>
       <c r="J70" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3016,13 +2828,13 @@
         <v>-32197.82052286038</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>379</v>
       </c>
       <c r="J71" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3057,13 +2869,13 @@
         <v>-32181.32552286038</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>378</v>
       </c>
       <c r="J72" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3098,13 +2910,13 @@
         <v>-32181.32552286038</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>379</v>
       </c>
       <c r="J73" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3139,13 +2951,13 @@
         <v>-31932.11602286038</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>379</v>
       </c>
       <c r="J74" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3180,13 +2992,13 @@
         <v>-31932.11602286038</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>380</v>
       </c>
       <c r="J75" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3221,13 +3033,13 @@
         <v>-32957.53822286038</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>380</v>
       </c>
       <c r="J76" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3262,13 +3074,13 @@
         <v>-32619.54302286038</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>379</v>
       </c>
       <c r="J77" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3303,13 +3115,11 @@
         <v>-32619.54302286038</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3344,13 +3154,11 @@
         <v>-32559.99882286038</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3385,13 +3193,11 @@
         <v>-32559.99882286038</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3426,13 +3232,11 @@
         <v>-32559.99882286038</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3467,13 +3271,11 @@
         <v>-26876.32102286038</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3508,13 +3310,11 @@
         <v>-27732.17712286038</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3553,7 +3353,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3588,13 +3388,11 @@
         <v>-24994.76062286038</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3633,7 +3431,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3672,7 +3470,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3711,7 +3509,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3750,7 +3548,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3789,7 +3587,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3828,7 +3626,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3867,7 +3665,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3906,7 +3704,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3945,7 +3743,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3984,7 +3782,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4023,7 +3821,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4062,7 +3860,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4101,7 +3899,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4140,7 +3938,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4179,7 +3977,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4218,7 +4016,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4257,7 +4055,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4292,13 +4090,13 @@
         <v>-37778.64212286039</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>378</v>
       </c>
       <c r="J103" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4333,13 +4131,13 @@
         <v>-37778.64212286039</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>377</v>
       </c>
       <c r="J104" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4374,13 +4172,13 @@
         <v>-44326.81242286039</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>377</v>
       </c>
       <c r="J105" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4415,13 +4213,13 @@
         <v>-44326.81242286039</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>376</v>
       </c>
       <c r="J106" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4456,13 +4254,13 @@
         <v>-44047.33892286039</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>376</v>
       </c>
       <c r="J107" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4497,13 +4295,13 @@
         <v>-43438.57062286039</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>378</v>
       </c>
       <c r="J108" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4538,13 +4336,13 @@
         <v>-43438.57062286039</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>380</v>
       </c>
       <c r="J109" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4579,13 +4377,13 @@
         <v>-32125.20462286039</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>380</v>
       </c>
       <c r="J110" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4620,13 +4418,13 @@
         <v>-32117.33032286039</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>381</v>
       </c>
       <c r="J111" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4661,13 +4459,13 @@
         <v>-29010.14392286039</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>382</v>
       </c>
       <c r="J112" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4702,13 +4500,13 @@
         <v>-29010.14392286039</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>383</v>
       </c>
       <c r="J113" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4743,13 +4541,11 @@
         <v>-29010.14392286039</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4784,13 +4580,13 @@
         <v>-28893.79942286039</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>383</v>
       </c>
       <c r="J115" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4825,13 +4621,13 @@
         <v>-28893.79942286039</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>384</v>
       </c>
       <c r="J116" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4866,13 +4662,13 @@
         <v>5605.584777139611</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>384</v>
       </c>
       <c r="J117" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4907,13 +4703,11 @@
         <v>5743.289440352046</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4948,13 +4742,11 @@
         <v>4981.289440352046</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4989,13 +4781,11 @@
         <v>4981.289440352046</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5030,13 +4820,11 @@
         <v>4988.289440352046</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5071,13 +4859,11 @@
         <v>1931.426940352046</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5112,13 +4898,11 @@
         <v>1931.426940352046</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5153,13 +4937,11 @@
         <v>1933.426940352046</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5194,13 +4976,11 @@
         <v>1933.426940352046</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5239,7 +5019,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5278,7 +5058,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5317,7 +5097,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5356,7 +5136,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5395,7 +5175,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5434,7 +5214,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5473,7 +5253,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5512,7 +5292,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5551,7 +5331,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5590,7 +5370,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5629,7 +5409,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5668,7 +5448,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5707,7 +5487,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5746,7 +5526,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5785,7 +5565,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5824,7 +5604,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5863,7 +5643,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5902,7 +5682,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5941,7 +5721,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5980,7 +5760,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6019,7 +5799,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6058,7 +5838,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6097,7 +5877,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6136,7 +5916,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6175,7 +5955,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6214,7 +5994,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6253,7 +6033,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6292,7 +6072,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6331,7 +6111,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6370,7 +6150,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6409,7 +6189,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6448,7 +6228,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6487,7 +6267,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6526,7 +6306,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6565,7 +6345,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6604,7 +6384,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6643,7 +6423,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6682,7 +6462,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6721,7 +6501,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6760,7 +6540,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6799,7 +6579,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6838,7 +6618,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6877,7 +6657,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6916,7 +6696,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6955,7 +6735,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6994,7 +6774,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7033,7 +6813,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7072,7 +6852,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7111,7 +6891,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7150,7 +6930,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7189,7 +6969,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7228,7 +7008,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7267,7 +7047,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7306,7 +7086,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7345,7 +7125,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7384,7 +7164,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7423,7 +7203,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7462,7 +7242,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7501,7 +7281,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7540,7 +7320,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7579,7 +7359,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7618,7 +7398,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7657,7 +7437,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7696,7 +7476,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7735,7 +7515,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7774,7 +7554,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7813,7 +7593,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7852,7 +7632,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7891,7 +7671,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7930,7 +7710,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7969,7 +7749,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8008,7 +7788,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8047,7 +7827,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8086,7 +7866,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8125,7 +7905,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8164,7 +7944,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8203,7 +7983,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8242,7 +8022,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8281,7 +8061,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8320,7 +8100,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8359,7 +8139,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8398,7 +8178,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8437,7 +8217,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8476,7 +8256,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8515,7 +8295,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8554,7 +8334,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8593,7 +8373,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8632,7 +8412,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8671,7 +8451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8710,7 +8490,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8749,7 +8529,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8784,13 +8564,11 @@
         <v>17774.28328297638</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8829,7 +8607,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8868,7 +8646,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8907,7 +8685,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8946,7 +8724,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8985,7 +8763,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9024,7 +8802,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9063,7 +8841,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9102,7 +8880,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9141,7 +8919,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9180,7 +8958,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9219,7 +8997,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9258,7 +9036,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9297,7 +9075,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9336,7 +9114,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9375,7 +9153,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9410,19 +9188,19 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L233" t="n">
-        <v>1.015565552699229</v>
+        <v>1</v>
       </c>
       <c r="M233" t="inlineStr"/>
     </row>
@@ -9449,11 +9227,17 @@
         <v>27242.14888297638</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>377</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9482,11 +9266,17 @@
         <v>38878.02678297638</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>377</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9515,11 +9305,17 @@
         <v>38852.96396890603</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>377</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9548,11 +9344,17 @@
         <v>36529.31096890603</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>377</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9581,11 +9383,17 @@
         <v>34819.52966890603</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>377</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +9422,17 @@
         <v>34839.57356890602</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>377</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9650,8 +9464,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>377</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9683,8 +9503,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>377</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9716,8 +9542,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>377</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9749,8 +9581,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>377</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9782,8 +9620,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>377</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9815,8 +9659,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>377</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9848,8 +9698,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>377</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9881,8 +9737,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>377</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9914,8 +9776,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>377</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9947,8 +9815,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>377</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9980,8 +9854,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>377</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10013,8 +9893,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>377</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10046,8 +9932,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>377</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10079,8 +9971,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>377</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10112,8 +10010,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>377</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10145,8 +10049,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>377</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10178,8 +10088,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>377</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10211,8 +10127,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>377</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10244,8 +10166,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>377</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10274,11 +10202,17 @@
         <v>28318.75515669228</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>377</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10310,8 +10244,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>377</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10340,11 +10280,17 @@
         <v>26799.01265669228</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>377</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10376,8 +10322,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>377</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10409,8 +10361,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>377</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10442,8 +10400,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>377</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10472,11 +10436,17 @@
         <v>9195.280956692282</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>377</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10508,8 +10478,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>377</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10541,8 +10517,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>377</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10574,8 +10556,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>377</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10607,8 +10595,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>377</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10640,8 +10634,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>377</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10673,8 +10673,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>377</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10706,8 +10712,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>377</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10739,8 +10751,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>377</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10772,8 +10790,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>377</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10805,8 +10829,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>377</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10838,8 +10868,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>377</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10871,8 +10907,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>377</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10904,8 +10946,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>377</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10937,8 +10985,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>377</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10970,8 +11024,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>377</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11003,8 +11063,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>377</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11036,8 +11102,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>377</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11069,8 +11141,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>377</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11102,8 +11180,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>377</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11135,8 +11219,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>377</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11168,8 +11258,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>377</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11201,8 +11297,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>377</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11234,8 +11336,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>377</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11267,8 +11375,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>377</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11300,8 +11414,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>377</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11333,8 +11453,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>377</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11366,8 +11492,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>377</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11399,8 +11531,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>377</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11432,8 +11570,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>377</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11465,8 +11609,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>377</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11498,8 +11648,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>377</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11531,8 +11687,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>377</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11561,11 +11723,17 @@
         <v>28445.5508163414</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>377</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11597,8 +11765,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>377</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11630,8 +11804,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>377</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11663,8 +11843,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>377</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11693,11 +11879,17 @@
         <v>40069.85841634141</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>377</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11726,11 +11918,17 @@
         <v>40288.57261634141</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>377</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11759,11 +11957,17 @@
         <v>96198.01751634141</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>377</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11792,11 +11996,17 @@
         <v>49520.55525306598</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>377</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11825,11 +12035,17 @@
         <v>53839.75858979054</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>377</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11858,11 +12074,17 @@
         <v>53839.75858979054</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>377</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11891,11 +12113,17 @@
         <v>50044.10238979055</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>377</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11924,11 +12152,17 @@
         <v>50044.10238979055</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>377</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11957,11 +12191,17 @@
         <v>50044.10238979055</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>377</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11993,8 +12233,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>377</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12026,8 +12272,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>377</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12059,8 +12311,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>377</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12092,8 +12350,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>377</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12125,8 +12389,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>377</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12158,8 +12428,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>377</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12191,8 +12467,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>377</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12224,8 +12506,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>377</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12254,13 +12542,19 @@
         <v>24604.39198979054</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>377</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L319" t="n">
-        <v>1</v>
+        <v>1.045397877984085</v>
       </c>
       <c r="M319" t="inlineStr"/>
     </row>
@@ -12386,7 +12680,7 @@
         <v>23310.75408979054</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12419,7 +12713,7 @@
         <v>37692.48288979054</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12452,7 +12746,7 @@
         <v>114696.3354897905</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12485,7 +12779,7 @@
         <v>102915.5518897905</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12551,7 +12845,7 @@
         <v>104108.9304897905</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12914,7 +13208,7 @@
         <v>75352.6340897905</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12980,7 +13274,7 @@
         <v>75352.6340897905</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13013,7 +13307,7 @@
         <v>70857.1413897905</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13046,7 +13340,7 @@
         <v>70858.1413897905</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13079,7 +13373,7 @@
         <v>65217.7346897905</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13112,7 +13406,7 @@
         <v>65341.1913897905</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13145,7 +13439,7 @@
         <v>64151.42488979051</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13178,7 +13472,7 @@
         <v>56620.4382897905</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13211,7 +13505,7 @@
         <v>53955.9692897905</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13244,7 +13538,7 @@
         <v>55672.9692897905</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13277,7 +13571,7 @@
         <v>50653.5292897905</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13310,7 +13604,7 @@
         <v>49318.4644897905</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13343,7 +13637,7 @@
         <v>49318.4644897905</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13376,7 +13670,7 @@
         <v>47210.5189897905</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13409,7 +13703,7 @@
         <v>51210.5189897905</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13442,7 +13736,7 @@
         <v>50859.5751897905</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13475,7 +13769,7 @@
         <v>69408.99308491245</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13508,7 +13802,7 @@
         <v>69406.96108491244</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13541,7 +13835,7 @@
         <v>63670.12144293713</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13574,7 +13868,7 @@
         <v>63670.12144293713</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13640,7 +13934,7 @@
         <v>63615.84954293713</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13706,7 +14000,7 @@
         <v>62925.94154293714</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13739,7 +14033,7 @@
         <v>64720.84854293714</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13772,7 +14066,7 @@
         <v>64841.91444293714</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13805,7 +14099,7 @@
         <v>64831.25124293713</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13838,7 +14132,7 @@
         <v>64832.25124293713</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14036,7 +14330,7 @@
         <v>67321.98544293713</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14069,7 +14363,7 @@
         <v>67321.98544293713</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14102,7 +14396,7 @@
         <v>63295.71514293713</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14135,7 +14429,7 @@
         <v>60511.76844293713</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14168,7 +14462,7 @@
         <v>61828.62924293713</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14201,7 +14495,7 @@
         <v>61828.62924293713</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14234,7 +14528,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14267,7 +14561,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14300,7 +14594,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14333,7 +14627,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14366,7 +14660,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14399,7 +14693,7 @@
         <v>66846.98744293714</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14432,7 +14726,7 @@
         <v>62836.98744293714</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14465,7 +14759,7 @@
         <v>65702.20814293715</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14498,7 +14792,7 @@
         <v>66229.04654293714</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14531,7 +14825,7 @@
         <v>65373.79704293714</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14564,7 +14858,7 @@
         <v>64318.02234293714</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14597,7 +14891,7 @@
         <v>59651.40804293714</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14630,7 +14924,7 @@
         <v>59651.40804293714</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14663,7 +14957,7 @@
         <v>59411.59294293714</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14696,7 +14990,7 @@
         <v>57308.67624293714</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14729,7 +15023,7 @@
         <v>57308.67624293714</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14762,7 +15056,7 @@
         <v>59591.77094293714</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14795,7 +15089,7 @@
         <v>68575.37434293714</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14828,7 +15122,7 @@
         <v>68575.37434293714</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14861,7 +15155,7 @@
         <v>68490.13964293714</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14894,7 +15188,7 @@
         <v>24460.20794293714</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14927,7 +15221,7 @@
         <v>23960.06874293714</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14960,7 +15254,7 @@
         <v>22065.99064293714</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14993,7 +15287,7 @@
         <v>22065.99064293714</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15026,7 +15320,7 @@
         <v>22125.57684293714</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15059,7 +15353,7 @@
         <v>21984.05814293714</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15092,7 +15386,7 @@
         <v>28720.18914293714</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15125,7 +15419,7 @@
         <v>28720.18914293714</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15158,7 +15452,7 @@
         <v>28720.18914293714</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15191,7 +15485,7 @@
         <v>28724.18914293714</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15224,7 +15518,7 @@
         <v>28727.18914293714</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15257,7 +15551,7 @@
         <v>28727.18914293714</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15290,7 +15584,7 @@
         <v>28721.43014293714</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15323,7 +15617,7 @@
         <v>28746.43014293714</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15356,7 +15650,7 @@
         <v>28652.43014293714</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15389,7 +15683,7 @@
         <v>28652.43014293714</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15422,7 +15716,7 @@
         <v>29692.55404293714</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15455,7 +15749,7 @@
         <v>29692.55404293714</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15521,7 +15815,7 @@
         <v>25888.21324293714</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15554,7 +15848,7 @@
         <v>25888.21324293714</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15587,7 +15881,7 @@
         <v>26723.21834293714</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15620,7 +15914,7 @@
         <v>26747.75784293714</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15653,7 +15947,7 @@
         <v>26747.75784293714</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15686,7 +15980,7 @@
         <v>26042.08104293714</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -20537,10 +20831,14 @@
         <v>-56872.56167323409</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>381</v>
+      </c>
+      <c r="J570" t="n">
+        <v>381</v>
+      </c>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
@@ -20573,8 +20871,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>381</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20606,8 +20910,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>381</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20801,10 +21111,14 @@
         <v>-83086.83117323408</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>380</v>
+      </c>
+      <c r="J578" t="n">
+        <v>380</v>
+      </c>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
@@ -20837,8 +21151,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>380</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20870,8 +21190,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>380</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20900,10 +21226,14 @@
         <v>-86113.68497323409</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>381</v>
+      </c>
+      <c r="J581" t="n">
+        <v>381</v>
+      </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
@@ -20933,11 +21263,19 @@
         <v>-103131.5965732341</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>385</v>
+      </c>
+      <c r="J582" t="n">
+        <v>381</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20969,8 +21307,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>381</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20999,11 +21343,19 @@
         <v>-95558.5610732341</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>380</v>
+      </c>
+      <c r="J584" t="n">
+        <v>381</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21035,8 +21387,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>381</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21065,11 +21423,19 @@
         <v>-95758.28897323411</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>382</v>
+      </c>
+      <c r="J586" t="n">
+        <v>381</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21098,11 +21464,19 @@
         <v>-98502.06237323412</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>381</v>
+      </c>
+      <c r="J587" t="n">
+        <v>381</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21131,11 +21505,19 @@
         <v>-98502.06237323412</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>380</v>
+      </c>
+      <c r="J588" t="n">
+        <v>381</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21164,11 +21546,19 @@
         <v>-98464.18127323412</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>380</v>
+      </c>
+      <c r="J589" t="n">
+        <v>381</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21200,8 +21590,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>381</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21233,8 +21629,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>381</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21266,8 +21668,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>381</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21296,11 +21704,19 @@
         <v>-89323.36867323412</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>383</v>
+      </c>
+      <c r="J593" t="n">
+        <v>381</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21329,11 +21745,19 @@
         <v>-88271.25487323411</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>381</v>
+      </c>
+      <c r="J594" t="n">
+        <v>381</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21362,11 +21786,19 @@
         <v>-88271.25487323411</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>383</v>
+      </c>
+      <c r="J595" t="n">
+        <v>381</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21398,8 +21830,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>381</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21431,8 +21869,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>381</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21464,8 +21908,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>381</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21497,8 +21947,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>381</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21527,11 +21983,19 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>380</v>
+      </c>
+      <c r="J600" t="n">
+        <v>381</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21560,11 +22024,19 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>380</v>
+      </c>
+      <c r="J601" t="n">
+        <v>381</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21593,11 +22065,19 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>380</v>
+      </c>
+      <c r="J602" t="n">
+        <v>381</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21626,11 +22106,19 @@
         <v>-79401.17177323411</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>380</v>
+      </c>
+      <c r="J603" t="n">
+        <v>381</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21659,11 +22147,19 @@
         <v>-69251.17177323411</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>383</v>
+      </c>
+      <c r="J604" t="n">
+        <v>381</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21695,8 +22191,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>381</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21728,14 +22230,20 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>381</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
       <c r="M606" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-21 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2299,14 +2299,10 @@
         <v>-15821.25552286039</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>377</v>
-      </c>
-      <c r="J58" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2336,101 +2332,83 @@
         <v>-15349.01232286038</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
         <v>379</v>
       </c>
-      <c r="J59" t="n">
+      <c r="C60" t="n">
+        <v>378</v>
+      </c>
+      <c r="D60" t="n">
+        <v>379</v>
+      </c>
+      <c r="E60" t="n">
+        <v>378</v>
+      </c>
+      <c r="F60" t="n">
+        <v>62.107</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-15411.11932286038</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>377</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="C61" t="n">
+        <v>377</v>
+      </c>
+      <c r="D61" t="n">
+        <v>377</v>
+      </c>
+      <c r="E61" t="n">
+        <v>373</v>
+      </c>
+      <c r="F61" t="n">
+        <v>22542.7737</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-37953.89302286039</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>378</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>379</v>
-      </c>
-      <c r="C60" t="n">
-        <v>378</v>
-      </c>
-      <c r="D60" t="n">
-        <v>379</v>
-      </c>
-      <c r="E60" t="n">
-        <v>378</v>
-      </c>
-      <c r="F60" t="n">
-        <v>62.107</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-15411.11932286038</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>380</v>
-      </c>
-      <c r="J60" t="n">
-        <v>377</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>377</v>
-      </c>
-      <c r="C61" t="n">
-        <v>377</v>
-      </c>
-      <c r="D61" t="n">
-        <v>377</v>
-      </c>
-      <c r="E61" t="n">
-        <v>373</v>
-      </c>
-      <c r="F61" t="n">
-        <v>22542.7737</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-37953.89302286039</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>378</v>
-      </c>
-      <c r="J61" t="n">
-        <v>377</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2464,9 +2442,7 @@
       <c r="I62" t="n">
         <v>377</v>
       </c>
-      <c r="J62" t="n">
-        <v>377</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2505,9 +2481,7 @@
       <c r="I63" t="n">
         <v>375</v>
       </c>
-      <c r="J63" t="n">
-        <v>377</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2546,9 +2520,7 @@
       <c r="I64" t="n">
         <v>377</v>
       </c>
-      <c r="J64" t="n">
-        <v>377</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,9 +2559,7 @@
       <c r="I65" t="n">
         <v>379</v>
       </c>
-      <c r="J65" t="n">
-        <v>377</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2628,9 +2598,7 @@
       <c r="I66" t="n">
         <v>377</v>
       </c>
-      <c r="J66" t="n">
-        <v>377</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2669,9 +2637,7 @@
       <c r="I67" t="n">
         <v>377</v>
       </c>
-      <c r="J67" t="n">
-        <v>377</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,9 +2676,7 @@
       <c r="I68" t="n">
         <v>378</v>
       </c>
-      <c r="J68" t="n">
-        <v>377</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,9 +2715,7 @@
       <c r="I69" t="n">
         <v>377</v>
       </c>
-      <c r="J69" t="n">
-        <v>377</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,9 +2754,7 @@
       <c r="I70" t="n">
         <v>378</v>
       </c>
-      <c r="J70" t="n">
-        <v>377</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,14 +2788,10 @@
         <v>-32197.82052286038</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>379</v>
-      </c>
-      <c r="J71" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2869,14 +2825,10 @@
         <v>-32181.32552286038</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>378</v>
-      </c>
-      <c r="J72" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2915,9 +2867,7 @@
       <c r="I73" t="n">
         <v>379</v>
       </c>
-      <c r="J73" t="n">
-        <v>377</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2951,14 +2901,10 @@
         <v>-31932.11602286038</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>379</v>
-      </c>
-      <c r="J74" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2992,14 +2938,10 @@
         <v>-31932.11602286038</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>380</v>
-      </c>
-      <c r="J75" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,14 +2975,10 @@
         <v>-32957.53822286038</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>380</v>
-      </c>
-      <c r="J76" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3079,9 +3017,7 @@
       <c r="I77" t="n">
         <v>379</v>
       </c>
-      <c r="J77" t="n">
-        <v>377</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3118,9 +3054,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>377</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3157,9 +3091,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>377</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,9 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>377</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3235,9 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>377</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3274,9 +3202,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>377</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3313,9 +3239,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>377</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,9 +3276,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>377</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3391,9 +3313,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>377</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3430,9 +3350,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>377</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3469,9 +3387,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>377</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,9 +3424,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>377</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3547,9 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>377</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3586,9 +3498,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>377</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3625,9 +3535,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>377</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3664,9 +3572,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>377</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3703,9 +3609,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>377</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3742,9 +3646,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>377</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3781,9 +3683,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>377</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3820,9 +3720,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>377</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3859,9 +3757,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>377</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3898,9 +3794,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>377</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3937,9 +3831,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>377</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,9 +3868,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>377</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4015,9 +3905,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>377</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4051,12 +3939,12 @@
         <v>-35881.1956228604</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>377</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>379</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,9 +3983,7 @@
       <c r="I103" t="n">
         <v>378</v>
       </c>
-      <c r="J103" t="n">
-        <v>377</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4136,9 +4022,7 @@
       <c r="I104" t="n">
         <v>377</v>
       </c>
-      <c r="J104" t="n">
-        <v>377</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,9 +4061,7 @@
       <c r="I105" t="n">
         <v>377</v>
       </c>
-      <c r="J105" t="n">
-        <v>377</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4218,9 +4100,7 @@
       <c r="I106" t="n">
         <v>376</v>
       </c>
-      <c r="J106" t="n">
-        <v>377</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4259,9 +4139,7 @@
       <c r="I107" t="n">
         <v>376</v>
       </c>
-      <c r="J107" t="n">
-        <v>377</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4300,9 +4178,7 @@
       <c r="I108" t="n">
         <v>378</v>
       </c>
-      <c r="J108" t="n">
-        <v>377</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,9 +4217,7 @@
       <c r="I109" t="n">
         <v>380</v>
       </c>
-      <c r="J109" t="n">
-        <v>377</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,9 +4256,7 @@
       <c r="I110" t="n">
         <v>380</v>
       </c>
-      <c r="J110" t="n">
-        <v>377</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4418,14 +4290,10 @@
         <v>-32117.33032286039</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>381</v>
-      </c>
-      <c r="J111" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4459,14 +4327,10 @@
         <v>-29010.14392286039</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>382</v>
-      </c>
-      <c r="J112" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4500,14 +4364,10 @@
         <v>-29010.14392286039</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>383</v>
-      </c>
-      <c r="J113" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,9 +4404,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>377</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,14 +4438,10 @@
         <v>-28893.79942286039</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>383</v>
-      </c>
-      <c r="J115" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4621,14 +4475,10 @@
         <v>-28893.79942286039</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>384</v>
-      </c>
-      <c r="J116" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,14 +4512,10 @@
         <v>5605.584777139611</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>384</v>
-      </c>
-      <c r="J117" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,9 +4552,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>377</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,9 +4589,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>377</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,9 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>377</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,9 +4663,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>377</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,9 +4700,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>377</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,9 +4737,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>377</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,9 +4774,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>377</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,9 +4811,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>377</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,9 +4848,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>377</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5057,9 +4885,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>377</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,9 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>377</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5135,9 +4959,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>377</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5174,9 +4996,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>377</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5213,9 +5033,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>377</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5252,9 +5070,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>377</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,9 +5107,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>377</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5330,9 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>377</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5369,9 +5181,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>377</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5408,9 +5218,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>377</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5447,9 +5255,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>377</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,9 +5292,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>377</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5525,9 +5329,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>377</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,9 +5366,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>377</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5603,9 +5403,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>377</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5642,9 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>377</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5681,9 +5477,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>377</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5717,20 +5511,16 @@
         <v>27091.07197659884</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>377</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -5756,17 +5546,11 @@
         <v>25496.46647659883</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>377</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5795,17 +5579,11 @@
         <v>25496.46647659883</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>377</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5834,17 +5612,11 @@
         <v>25963.47157659883</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>377</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5873,17 +5645,11 @@
         <v>25963.47157659883</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>377</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5912,17 +5678,11 @@
         <v>25078.14617659883</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>377</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5951,17 +5711,11 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>377</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5990,17 +5744,11 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>377</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6029,17 +5777,11 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>377</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6068,17 +5810,11 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>377</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6107,17 +5843,11 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>377</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6146,17 +5876,11 @@
         <v>21927.04607659883</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>377</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6185,17 +5909,11 @@
         <v>23025.90957659883</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>377</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6224,17 +5942,11 @@
         <v>23025.90957659883</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>377</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6263,17 +5975,11 @@
         <v>22576.64687659883</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>377</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6302,17 +6008,11 @@
         <v>22566.64687659883</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>377</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6344,14 +6044,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>377</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6383,14 +6077,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>377</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6422,14 +6110,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>377</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6461,14 +6143,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>377</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6500,14 +6176,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>377</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6539,14 +6209,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>377</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6578,14 +6242,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>377</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6617,14 +6275,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>377</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6656,14 +6308,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>377</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6695,14 +6341,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>377</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6734,14 +6374,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>377</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6773,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>377</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6812,14 +6440,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>377</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6851,14 +6473,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>377</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6890,14 +6506,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>377</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6929,14 +6539,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>377</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6968,14 +6572,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>377</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7007,14 +6605,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>377</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7046,14 +6638,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>377</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7082,17 +6668,11 @@
         <v>42242.38509113965</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>377</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7124,14 +6704,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>377</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7160,17 +6734,11 @@
         <v>14573.74519113965</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>377</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7202,14 +6770,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>377</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7241,14 +6803,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>377</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7280,14 +6836,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>377</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7319,14 +6869,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>377</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7358,14 +6902,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>377</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7397,14 +6935,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>377</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7436,14 +6968,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>377</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7475,14 +7001,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>377</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7514,14 +7034,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>377</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7553,14 +7067,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>377</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7592,14 +7100,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>377</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7631,14 +7133,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>377</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7670,14 +7166,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>377</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7709,14 +7199,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>377</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7748,14 +7232,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>377</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7784,17 +7262,11 @@
         <v>32738.75198297638</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>377</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7823,17 +7295,11 @@
         <v>32738.75198297638</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>377</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7862,17 +7328,11 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>377</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7901,17 +7361,11 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>377</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7940,17 +7394,11 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>377</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7979,17 +7427,11 @@
         <v>32086.81978297638</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>377</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8018,17 +7460,11 @@
         <v>30582.67308297638</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>377</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8057,17 +7493,11 @@
         <v>15992.35678297638</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>377</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8096,17 +7526,11 @@
         <v>14166.09038297638</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>377</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8138,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>377</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8177,14 +7595,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>377</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8216,14 +7628,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>377</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8255,14 +7661,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>377</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8294,14 +7694,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>377</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8333,14 +7727,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>377</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8372,14 +7760,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>377</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8411,14 +7793,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>377</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8450,14 +7826,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>377</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8489,14 +7859,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>377</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8528,14 +7892,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>377</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8567,14 +7925,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>377</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8606,14 +7958,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>377</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8642,17 +7988,11 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>377</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8681,17 +8021,11 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>377</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8720,17 +8054,11 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>377</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8759,17 +8087,11 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>377</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8798,17 +8120,11 @@
         <v>26780.60158297638</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>377</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8837,17 +8153,11 @@
         <v>26780.60158297638</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>377</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8876,17 +8186,11 @@
         <v>28372.40258297638</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>377</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8915,17 +8219,11 @@
         <v>26411.17018297638</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>377</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8954,17 +8252,11 @@
         <v>26478.32818297638</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>377</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8993,17 +8285,11 @@
         <v>27466.43008297638</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>377</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9032,17 +8318,11 @@
         <v>26173.42578297638</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>377</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9071,17 +8351,11 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>377</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9110,17 +8384,11 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>377</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9149,17 +8417,11 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>377</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9188,17 +8450,11 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>377</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9227,17 +8483,11 @@
         <v>27242.14888297638</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>377</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9266,17 +8516,11 @@
         <v>38878.02678297638</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>377</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9305,17 +8549,11 @@
         <v>38852.96396890603</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>377</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9344,17 +8582,11 @@
         <v>36529.31096890603</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>377</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9383,17 +8615,11 @@
         <v>34819.52966890603</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>377</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9425,14 +8651,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>377</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9464,14 +8684,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>377</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9503,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>377</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9542,14 +8750,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>377</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9581,14 +8783,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>377</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9620,14 +8816,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>377</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9659,14 +8849,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>377</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9698,14 +8882,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>377</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9737,14 +8915,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>377</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9776,14 +8948,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>377</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9815,14 +8981,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>377</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9854,14 +9014,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>377</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9893,14 +9047,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>377</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9932,14 +9080,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>377</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9971,14 +9113,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>377</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10007,17 +9143,11 @@
         <v>24502.26775669228</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>377</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10046,17 +9176,11 @@
         <v>26613.89355669228</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>377</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10085,17 +9209,11 @@
         <v>28833.28445669228</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>377</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10124,17 +9242,11 @@
         <v>28933.28445669228</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>377</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10163,17 +9275,11 @@
         <v>28933.28445669228</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>377</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10202,17 +9308,11 @@
         <v>28318.75515669228</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>377</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10241,17 +9341,11 @@
         <v>26799.01265669228</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>377</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10280,17 +9374,11 @@
         <v>26799.01265669228</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>377</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10319,17 +9407,11 @@
         <v>27066.50785669228</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>377</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10358,17 +9440,11 @@
         <v>27066.50785669228</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>377</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10397,17 +9473,11 @@
         <v>25455.97385669228</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>377</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10436,17 +9506,11 @@
         <v>9195.280956692282</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>377</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10475,17 +9539,11 @@
         <v>11142.82585669228</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>377</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10514,17 +9572,11 @@
         <v>11142.82585669228</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>377</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10556,14 +9608,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>377</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10595,14 +9641,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>377</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10634,14 +9674,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>377</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10673,14 +9707,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>377</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10712,14 +9740,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>377</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10751,14 +9773,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>377</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10790,14 +9806,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>377</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10829,14 +9839,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>377</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10868,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>377</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10907,14 +9905,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>377</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10946,14 +9938,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>377</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10985,14 +9971,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>377</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11024,14 +10004,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>377</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11063,14 +10037,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>377</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11102,14 +10070,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>377</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11141,14 +10103,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>377</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11180,14 +10136,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>377</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11216,17 +10166,11 @@
         <v>16403.22845669228</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>377</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11258,14 +10202,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>377</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11297,14 +10235,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>377</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11336,14 +10268,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>377</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11372,17 +10298,11 @@
         <v>15876.58685669228</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>377</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11411,17 +10331,11 @@
         <v>16362.73265669228</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>377</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11450,17 +10364,11 @@
         <v>17417.68505669228</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>377</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11489,17 +10397,11 @@
         <v>17417.68505669228</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>377</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11531,14 +10433,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>377</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11570,14 +10466,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>377</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11609,14 +10499,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>377</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11648,14 +10532,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>377</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11687,14 +10565,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>377</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11726,14 +10598,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>377</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11765,14 +10631,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>377</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11804,14 +10664,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>377</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11843,14 +10697,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>377</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11882,14 +10730,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>377</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11921,14 +10763,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>377</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11960,14 +10796,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>377</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11999,14 +10829,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>377</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12038,14 +10862,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>377</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12077,14 +10895,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>377</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12116,14 +10928,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>377</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12155,14 +10961,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>377</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12194,14 +10994,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>377</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12233,14 +11027,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>377</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12272,14 +11060,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>377</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12311,14 +11093,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>377</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12350,14 +11126,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>377</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12389,14 +11159,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>377</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12428,14 +11192,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>377</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12467,14 +11225,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>377</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12506,14 +11258,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>377</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12542,19 +11288,13 @@
         <v>24604.39198979054</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>377</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
-        <v>1.045397877984085</v>
+        <v>1</v>
       </c>
       <c r="M319" t="inlineStr"/>
     </row>
@@ -12680,7 +11420,7 @@
         <v>23310.75408979054</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12713,7 +11453,7 @@
         <v>37692.48288979054</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12746,7 +11486,7 @@
         <v>114696.3354897905</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12779,7 +11519,7 @@
         <v>102915.5518897905</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -13208,7 +11948,7 @@
         <v>75352.6340897905</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13274,7 +12014,7 @@
         <v>75352.6340897905</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13307,7 +12047,7 @@
         <v>70857.1413897905</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13340,7 +12080,7 @@
         <v>70858.1413897905</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13373,7 +12113,7 @@
         <v>65217.7346897905</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13406,7 +12146,7 @@
         <v>65341.1913897905</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13439,7 +12179,7 @@
         <v>64151.42488979051</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13472,7 +12212,7 @@
         <v>56620.4382897905</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13505,7 +12245,7 @@
         <v>53955.9692897905</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13538,7 +12278,7 @@
         <v>55672.9692897905</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13571,7 +12311,7 @@
         <v>50653.5292897905</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13604,7 +12344,7 @@
         <v>49318.4644897905</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13637,7 +12377,7 @@
         <v>49318.4644897905</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13670,7 +12410,7 @@
         <v>47210.5189897905</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13703,7 +12443,7 @@
         <v>51210.5189897905</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13736,7 +12476,7 @@
         <v>50859.5751897905</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13769,7 +12509,7 @@
         <v>69408.99308491245</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13835,7 +12575,7 @@
         <v>63670.12144293713</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14330,7 +13070,7 @@
         <v>67321.98544293713</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14363,7 +13103,7 @@
         <v>67321.98544293713</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14396,7 +13136,7 @@
         <v>63295.71514293713</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14429,7 +13169,7 @@
         <v>60511.76844293713</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14462,7 +13202,7 @@
         <v>61828.62924293713</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14495,7 +13235,7 @@
         <v>61828.62924293713</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14528,7 +13268,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14561,7 +13301,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14594,7 +13334,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14627,7 +13367,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14660,7 +13400,7 @@
         <v>65828.62924293714</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14693,7 +13433,7 @@
         <v>66846.98744293714</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14726,7 +13466,7 @@
         <v>62836.98744293714</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14759,7 +13499,7 @@
         <v>65702.20814293715</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14792,7 +13532,7 @@
         <v>66229.04654293714</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14825,7 +13565,7 @@
         <v>65373.79704293714</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14858,7 +13598,7 @@
         <v>64318.02234293714</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14891,7 +13631,7 @@
         <v>59651.40804293714</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14924,7 +13664,7 @@
         <v>59651.40804293714</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14957,7 +13697,7 @@
         <v>59411.59294293714</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14990,7 +13730,7 @@
         <v>57308.67624293714</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15023,7 +13763,7 @@
         <v>57308.67624293714</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15056,7 +13796,7 @@
         <v>59591.77094293714</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15089,7 +13829,7 @@
         <v>68575.37434293714</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15122,7 +13862,7 @@
         <v>68575.37434293714</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15155,7 +13895,7 @@
         <v>68490.13964293714</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15188,7 +13928,7 @@
         <v>24460.20794293714</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15221,7 +13961,7 @@
         <v>23960.06874293714</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15254,7 +13994,7 @@
         <v>22065.99064293714</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15287,7 +14027,7 @@
         <v>22065.99064293714</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15320,7 +14060,7 @@
         <v>22125.57684293714</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15353,7 +14093,7 @@
         <v>21984.05814293714</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15386,7 +14126,7 @@
         <v>28720.18914293714</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15419,7 +14159,7 @@
         <v>28720.18914293714</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15452,7 +14192,7 @@
         <v>28720.18914293714</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15485,7 +14225,7 @@
         <v>28724.18914293714</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15518,7 +14258,7 @@
         <v>28727.18914293714</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15551,7 +14291,7 @@
         <v>28727.18914293714</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15584,7 +14324,7 @@
         <v>28721.43014293714</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15617,7 +14357,7 @@
         <v>28746.43014293714</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15650,7 +14390,7 @@
         <v>28652.43014293714</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15683,7 +14423,7 @@
         <v>28652.43014293714</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15716,7 +14456,7 @@
         <v>29692.55404293714</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15749,7 +14489,7 @@
         <v>29692.55404293714</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15815,7 +14555,7 @@
         <v>25888.21324293714</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15848,7 +14588,7 @@
         <v>25888.21324293714</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15881,7 +14621,7 @@
         <v>26723.21834293714</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15914,7 +14654,7 @@
         <v>26747.75784293714</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15947,7 +14687,7 @@
         <v>26747.75784293714</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15980,7 +14720,7 @@
         <v>26042.08104293714</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -18719,7 +17459,7 @@
         <v>2482.089726765921</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18752,7 +17492,7 @@
         <v>2482.089726765921</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18785,7 +17525,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18818,7 +17558,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18851,7 +17591,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18884,7 +17624,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18917,7 +17657,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18950,7 +17690,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18983,7 +17723,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19016,7 +17756,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19049,7 +17789,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19412,7 +18152,7 @@
         <v>5396.547926765921</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19445,7 +18185,7 @@
         <v>6688.001926765921</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19478,7 +18218,7 @@
         <v>6114.124126765921</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19511,7 +18251,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19544,7 +18284,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19577,7 +18317,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19610,7 +18350,7 @@
         <v>5877.250426765921</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19643,7 +18383,7 @@
         <v>5227.250426765921</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19676,7 +18416,7 @@
         <v>6345.81992676592</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19709,7 +18449,7 @@
         <v>7134.87192676592</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19742,7 +18482,7 @@
         <v>8804.41402676592</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19775,7 +18515,7 @@
         <v>7790.867326765921</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19808,7 +18548,7 @@
         <v>5165.302326765921</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19841,7 +18581,7 @@
         <v>5165.302326765921</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19874,7 +18614,7 @@
         <v>5157.372426765921</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19907,7 +18647,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19940,7 +18680,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19973,7 +18713,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20006,7 +18746,7 @@
         <v>4881.909326765921</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20039,7 +18779,7 @@
         <v>4727.099926765921</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20072,7 +18812,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20105,7 +18845,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20138,7 +18878,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20831,14 +19571,10 @@
         <v>-56872.56167323409</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>381</v>
-      </c>
-      <c r="J570" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
@@ -20871,14 +19607,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>381</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20910,14 +19640,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>381</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21226,14 +19950,10 @@
         <v>-86113.68497323409</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>381</v>
-      </c>
-      <c r="J581" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
@@ -21263,261 +19983,215 @@
         <v>-103131.5965732341</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>385</v>
-      </c>
-      <c r="J582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>382</v>
+      </c>
+      <c r="C583" t="n">
+        <v>380</v>
+      </c>
+      <c r="D583" t="n">
+        <v>382</v>
+      </c>
+      <c r="E583" t="n">
+        <v>379</v>
+      </c>
+      <c r="F583" t="n">
+        <v>7573.0355</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-95558.5610732341</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>382</v>
+      </c>
+      <c r="C584" t="n">
+        <v>380</v>
+      </c>
+      <c r="D584" t="n">
+        <v>382</v>
+      </c>
+      <c r="E584" t="n">
+        <v>380</v>
+      </c>
+      <c r="F584" t="n">
+        <v>1788.2615</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-95558.5610732341</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>382</v>
+      </c>
+      <c r="C585" t="n">
+        <v>382</v>
+      </c>
+      <c r="D585" t="n">
+        <v>382</v>
+      </c>
+      <c r="E585" t="n">
+        <v>382</v>
+      </c>
+      <c r="F585" t="n">
+        <v>31.7796</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-95526.78147323411</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
         <v>381</v>
       </c>
-      <c r="K582" t="inlineStr">
+      <c r="C586" t="n">
+        <v>381</v>
+      </c>
+      <c r="D586" t="n">
+        <v>381</v>
+      </c>
+      <c r="E586" t="n">
+        <v>381</v>
+      </c>
+      <c r="F586" t="n">
+        <v>231.5075</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-95758.28897323411</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>380</v>
+      </c>
+      <c r="C587" t="n">
+        <v>380</v>
+      </c>
+      <c r="D587" t="n">
+        <v>380</v>
+      </c>
+      <c r="E587" t="n">
+        <v>380</v>
+      </c>
+      <c r="F587" t="n">
+        <v>2743.7734</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-98502.06237323412</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>381</v>
+      </c>
+      <c r="C588" t="n">
+        <v>380</v>
+      </c>
+      <c r="D588" t="n">
+        <v>381</v>
+      </c>
+      <c r="E588" t="n">
+        <v>380</v>
+      </c>
+      <c r="F588" t="n">
+        <v>14106.0842</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-98502.06237323412</v>
+      </c>
+      <c r="H588" t="n">
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>380</v>
+      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>382</v>
-      </c>
-      <c r="C583" t="n">
-        <v>380</v>
-      </c>
-      <c r="D583" t="n">
-        <v>382</v>
-      </c>
-      <c r="E583" t="n">
-        <v>379</v>
-      </c>
-      <c r="F583" t="n">
-        <v>7573.0355</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-95558.5610732341</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>381</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>382</v>
-      </c>
-      <c r="C584" t="n">
-        <v>380</v>
-      </c>
-      <c r="D584" t="n">
-        <v>382</v>
-      </c>
-      <c r="E584" t="n">
-        <v>380</v>
-      </c>
-      <c r="F584" t="n">
-        <v>1788.2615</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-95558.5610732341</v>
-      </c>
-      <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>380</v>
-      </c>
-      <c r="J584" t="n">
-        <v>381</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>382</v>
-      </c>
-      <c r="C585" t="n">
-        <v>382</v>
-      </c>
-      <c r="D585" t="n">
-        <v>382</v>
-      </c>
-      <c r="E585" t="n">
-        <v>382</v>
-      </c>
-      <c r="F585" t="n">
-        <v>31.7796</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-95526.78147323411</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>381</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>381</v>
-      </c>
-      <c r="C586" t="n">
-        <v>381</v>
-      </c>
-      <c r="D586" t="n">
-        <v>381</v>
-      </c>
-      <c r="E586" t="n">
-        <v>381</v>
-      </c>
-      <c r="F586" t="n">
-        <v>231.5075</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-95758.28897323411</v>
-      </c>
-      <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>382</v>
-      </c>
-      <c r="J586" t="n">
-        <v>381</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>380</v>
-      </c>
-      <c r="C587" t="n">
-        <v>380</v>
-      </c>
-      <c r="D587" t="n">
-        <v>380</v>
-      </c>
-      <c r="E587" t="n">
-        <v>380</v>
-      </c>
-      <c r="F587" t="n">
-        <v>2743.7734</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-98502.06237323412</v>
-      </c>
-      <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>381</v>
-      </c>
-      <c r="J587" t="n">
-        <v>381</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>381</v>
-      </c>
-      <c r="C588" t="n">
-        <v>380</v>
-      </c>
-      <c r="D588" t="n">
-        <v>381</v>
-      </c>
-      <c r="E588" t="n">
-        <v>380</v>
-      </c>
-      <c r="F588" t="n">
-        <v>14106.0842</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-98502.06237323412</v>
-      </c>
-      <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>380</v>
-      </c>
-      <c r="J588" t="n">
-        <v>381</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21546,14 +20220,10 @@
         <v>-98464.18127323412</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>380</v>
-      </c>
-      <c r="J589" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21587,12 +20257,12 @@
         <v>-88821.07707323412</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>381</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>382</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21629,9 +20299,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>381</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21668,9 +20336,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>381</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21704,14 +20370,10 @@
         <v>-89323.36867323412</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>383</v>
-      </c>
-      <c r="J593" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21750,9 +20412,7 @@
       <c r="I594" t="n">
         <v>381</v>
       </c>
-      <c r="J594" t="n">
-        <v>381</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21791,9 +20451,7 @@
       <c r="I595" t="n">
         <v>383</v>
       </c>
-      <c r="J595" t="n">
-        <v>381</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21830,9 +20488,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>381</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21869,9 +20525,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>381</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21905,12 +20559,12 @@
         <v>-87616.75857323411</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>381</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>382</v>
+      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21947,9 +20601,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>381</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21988,9 +20640,7 @@
       <c r="I600" t="n">
         <v>380</v>
       </c>
-      <c r="J600" t="n">
-        <v>381</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22029,9 +20679,7 @@
       <c r="I601" t="n">
         <v>380</v>
       </c>
-      <c r="J601" t="n">
-        <v>381</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22070,9 +20718,7 @@
       <c r="I602" t="n">
         <v>380</v>
       </c>
-      <c r="J602" t="n">
-        <v>381</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22111,9 +20757,7 @@
       <c r="I603" t="n">
         <v>380</v>
       </c>
-      <c r="J603" t="n">
-        <v>381</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22152,9 +20796,7 @@
       <c r="I604" t="n">
         <v>383</v>
       </c>
-      <c r="J604" t="n">
-        <v>381</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22191,9 +20833,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>381</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22230,9 +20870,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>381</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22244,6 +20882,6 @@
       <c r="M606" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-21 BackTest ZRX.xlsx
@@ -2398,17 +2398,11 @@
         <v>-37953.89302286039</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2437,17 +2431,11 @@
         <v>-39742.43802286038</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2476,17 +2464,11 @@
         <v>-39440.85092286039</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2515,17 +2497,11 @@
         <v>-34626.34662286039</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2554,17 +2530,11 @@
         <v>-34655.11642286039</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2593,17 +2563,11 @@
         <v>-34655.11642286039</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2632,17 +2596,11 @@
         <v>-31748.57752286039</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2671,17 +2629,11 @@
         <v>-33098.34692286039</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2710,17 +2662,11 @@
         <v>-30320.73342286039</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2749,17 +2695,11 @@
         <v>-30232.90342286039</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2792,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2862,17 +2794,11 @@
         <v>-32181.32552286038</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2905,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2979,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3012,17 +2926,11 @@
         <v>-32619.54302286038</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3055,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3092,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3129,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3166,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3203,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3240,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3277,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3351,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3425,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3462,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3499,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3536,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3573,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3610,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3647,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3684,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3721,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3758,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3795,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3832,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3869,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3906,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3939,17 +3751,11 @@
         <v>-35881.1956228604</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3978,17 +3784,11 @@
         <v>-37778.64212286039</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4017,17 +3817,11 @@
         <v>-37778.64212286039</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4061,12 +3855,10 @@
       <c r="I105" t="n">
         <v>377</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="n">
+        <v>377</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4100,10 +3892,12 @@
       <c r="I106" t="n">
         <v>376</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>377</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -4139,10 +3933,12 @@
       <c r="I107" t="n">
         <v>376</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>377</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4178,12 +3974,10 @@
       <c r="I108" t="n">
         <v>378</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="n">
+        <v>378</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4217,10 +4011,12 @@
       <c r="I109" t="n">
         <v>380</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>378</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4256,10 +4052,12 @@
       <c r="I110" t="n">
         <v>380</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>378</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4290,15 +4088,15 @@
         <v>-32117.33032286039</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>381</v>
+      </c>
+      <c r="J111" t="n">
+        <v>381</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4327,13 +4125,17 @@
         <v>-29010.14392286039</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>382</v>
+      </c>
+      <c r="J112" t="n">
+        <v>381</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4367,10 +4169,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>381</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4405,11 +4209,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4442,11 +4242,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4479,11 +4275,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +4308,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4553,11 +4341,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4590,11 +4374,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4627,11 +4407,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4664,11 +4440,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4701,11 +4473,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4738,11 +4506,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4775,11 +4539,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4812,11 +4572,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4849,11 +4605,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4886,11 +4638,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4923,11 +4671,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4960,11 +4704,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4997,11 +4737,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5034,11 +4770,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +4803,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5108,11 +4836,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5145,11 +4869,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5182,11 +4902,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5219,11 +4935,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5256,11 +4968,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5293,11 +5001,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5330,11 +5034,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5367,11 +5067,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5404,11 +5100,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5441,11 +5133,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5478,11 +5166,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5511,16 +5195,14 @@
         <v>27091.07197659884</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
       <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -5546,7 +5228,7 @@
         <v>25496.46647659883</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5579,7 +5261,7 @@
         <v>25496.46647659883</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5612,7 +5294,7 @@
         <v>25963.47157659883</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5645,7 +5327,7 @@
         <v>25963.47157659883</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5678,7 +5360,7 @@
         <v>25078.14617659883</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5711,7 +5393,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5744,7 +5426,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5777,7 +5459,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5810,7 +5492,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5843,7 +5525,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5876,7 +5558,7 @@
         <v>21927.04607659883</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5909,7 +5591,7 @@
         <v>23025.90957659883</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5942,7 +5624,7 @@
         <v>23025.90957659883</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5975,7 +5657,7 @@
         <v>22576.64687659883</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6008,7 +5690,7 @@
         <v>22566.64687659883</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6668,7 +6350,7 @@
         <v>42242.38509113965</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6734,7 +6416,7 @@
         <v>14573.74519113965</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7262,7 +6944,7 @@
         <v>32738.75198297638</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7295,7 +6977,7 @@
         <v>32738.75198297638</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7328,7 +7010,7 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7361,7 +7043,7 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7394,7 +7076,7 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7427,7 +7109,7 @@
         <v>32086.81978297638</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7460,7 +7142,7 @@
         <v>30582.67308297638</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7493,7 +7175,7 @@
         <v>15992.35678297638</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7526,7 +7208,7 @@
         <v>14166.09038297638</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7988,7 +7670,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8021,7 +7703,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8054,7 +7736,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8087,7 +7769,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8120,7 +7802,7 @@
         <v>26780.60158297638</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8153,7 +7835,7 @@
         <v>26780.60158297638</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8186,7 +7868,7 @@
         <v>28372.40258297638</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8219,7 +7901,7 @@
         <v>26411.17018297638</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8252,7 +7934,7 @@
         <v>26478.32818297638</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8285,7 +7967,7 @@
         <v>27466.43008297638</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8318,7 +8000,7 @@
         <v>26173.42578297638</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8351,7 +8033,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8384,7 +8066,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8417,7 +8099,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8450,7 +8132,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8483,7 +8165,7 @@
         <v>27242.14888297638</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8516,7 +8198,7 @@
         <v>38878.02678297638</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8549,7 +8231,7 @@
         <v>38852.96396890603</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8582,7 +8264,7 @@
         <v>36529.31096890603</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8615,7 +8297,7 @@
         <v>34819.52966890603</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9143,7 +8825,7 @@
         <v>24502.26775669228</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9176,7 +8858,7 @@
         <v>26613.89355669228</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9209,7 +8891,7 @@
         <v>28833.28445669228</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9242,7 +8924,7 @@
         <v>28933.28445669228</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9275,7 +8957,7 @@
         <v>28933.28445669228</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9308,7 +8990,7 @@
         <v>28318.75515669228</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9341,7 +9023,7 @@
         <v>26799.01265669228</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9374,7 +9056,7 @@
         <v>26799.01265669228</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9407,7 +9089,7 @@
         <v>27066.50785669228</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9440,7 +9122,7 @@
         <v>27066.50785669228</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9473,7 +9155,7 @@
         <v>25455.97385669228</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9506,7 +9188,7 @@
         <v>9195.280956692282</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9539,7 +9221,7 @@
         <v>11142.82585669228</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9572,7 +9254,7 @@
         <v>11142.82585669228</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10166,7 +9848,7 @@
         <v>16403.22845669228</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10298,7 +9980,7 @@
         <v>15876.58685669228</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10331,7 +10013,7 @@
         <v>16362.73265669228</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10364,7 +10046,7 @@
         <v>17417.68505669228</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10397,7 +10079,7 @@
         <v>17417.68505669228</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10826,7 +10508,7 @@
         <v>49520.55525306598</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10859,7 +10541,7 @@
         <v>53839.75858979054</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11519,7 +11201,7 @@
         <v>102915.5518897905</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11552,7 +11234,7 @@
         <v>101633.1378897905</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11585,7 +11267,7 @@
         <v>104108.9304897905</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11618,7 +11300,7 @@
         <v>101341.3561897905</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11651,7 +11333,7 @@
         <v>101341.3561897905</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11684,7 +11366,7 @@
         <v>101341.3561897905</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11717,7 +11399,7 @@
         <v>96332.44488979052</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11750,7 +11432,7 @@
         <v>99898.49448979052</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11783,7 +11465,7 @@
         <v>97352.46308979052</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11816,7 +11498,7 @@
         <v>97352.46308979052</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11882,7 +11564,7 @@
         <v>81353.36338979051</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11915,7 +11597,7 @@
         <v>75163.9284897905</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13466,7 +13148,7 @@
         <v>62836.98744293714</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13499,7 +13181,7 @@
         <v>65702.20814293715</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13532,7 +13214,7 @@
         <v>66229.04654293714</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13565,7 +13247,7 @@
         <v>65373.79704293714</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13598,7 +13280,7 @@
         <v>64318.02234293714</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13631,7 +13313,7 @@
         <v>59651.40804293714</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13664,7 +13346,7 @@
         <v>59651.40804293714</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13862,7 +13544,7 @@
         <v>68575.37434293714</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13895,7 +13577,7 @@
         <v>68490.13964293714</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -17459,7 +17141,7 @@
         <v>2482.089726765921</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17492,7 +17174,7 @@
         <v>2482.089726765921</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17525,7 +17207,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17558,7 +17240,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17591,7 +17273,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17624,7 +17306,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17657,7 +17339,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17690,7 +17372,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17723,7 +17405,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17756,7 +17438,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17789,7 +17471,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18152,7 +17834,7 @@
         <v>5396.547926765921</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18185,7 +17867,7 @@
         <v>6688.001926765921</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18218,7 +17900,7 @@
         <v>6114.124126765921</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18251,7 +17933,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18284,7 +17966,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18317,7 +17999,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18350,7 +18032,7 @@
         <v>5877.250426765921</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18383,7 +18065,7 @@
         <v>5227.250426765921</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18416,7 +18098,7 @@
         <v>6345.81992676592</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18449,7 +18131,7 @@
         <v>7134.87192676592</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18482,7 +18164,7 @@
         <v>8804.41402676592</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18515,7 +18197,7 @@
         <v>7790.867326765921</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18548,7 +18230,7 @@
         <v>5165.302326765921</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18581,7 +18263,7 @@
         <v>5165.302326765921</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18614,7 +18296,7 @@
         <v>5157.372426765921</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18647,7 +18329,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18680,7 +18362,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18713,7 +18395,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18746,7 +18428,7 @@
         <v>4881.909326765921</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18779,7 +18461,7 @@
         <v>4727.099926765921</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18812,7 +18494,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18845,7 +18527,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18878,7 +18560,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19835,14 +19517,10 @@
         <v>-83086.83117323408</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>380</v>
-      </c>
-      <c r="J578" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
@@ -19875,14 +19553,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>380</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19914,14 +19586,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>380</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20181,17 +19847,11 @@
         <v>-98502.06237323412</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20224,11 +19884,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20257,17 +19913,11 @@
         <v>-88821.07707323412</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20300,11 +19950,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20337,11 +19983,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20374,11 +20016,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20407,17 +20045,11 @@
         <v>-88271.25487323411</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20446,17 +20078,11 @@
         <v>-88271.25487323411</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20489,11 +20115,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20526,11 +20148,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20559,17 +20177,11 @@
         <v>-87616.75857323411</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20602,11 +20214,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20635,17 +20243,11 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20674,17 +20276,11 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20718,12 +20314,10 @@
       <c r="I602" t="n">
         <v>380</v>
       </c>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="n">
+        <v>380</v>
+      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20757,10 +20351,12 @@
       <c r="I603" t="n">
         <v>380</v>
       </c>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>380</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L603" t="n">
@@ -20791,15 +20387,15 @@
         <v>-69251.17177323411</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>383</v>
-      </c>
-      <c r="J604" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>380</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L604" t="n">
@@ -20834,11 +20430,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20871,11 +20463,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
